--- a/data/Winter_DH/2021/Field_data/WMBMaster21_Incomplete_20210624_kk.xlsx
+++ b/data/Winter_DH/2021/Field_data/WMBMaster21_Incomplete_20210624_kk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl\git\BarleyGermination-KK\data\Winter_DH\2021\Field_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6962EB5D-1B16-4CD5-AD79-6C3A8C400E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6994DA58-5A2E-4D3E-97B9-5D326551AC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="622">
   <si>
     <t>Source</t>
   </si>
@@ -1864,9 +1864,6 @@
   </si>
   <si>
     <t>frost_damage</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t xml:space="preserve">white chelation </t>
@@ -2610,11 +2607,11 @@
   <dimension ref="A1:V481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="B469" sqref="B469"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2634,22 +2631,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="50" t="s">
+        <v>615</v>
+      </c>
+      <c r="D1" s="50" t="s">
         <v>616</v>
       </c>
-      <c r="D1" s="50" t="s">
-        <v>617</v>
-      </c>
       <c r="E1" s="50" t="s">
+        <v>620</v>
+      </c>
+      <c r="F1" s="51" t="s">
         <v>621</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>622</v>
       </c>
       <c r="G1" s="49" t="s">
         <v>585</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I1" s="47" t="s">
         <v>593</v>
@@ -2673,13 +2670,13 @@
         <v>600</v>
       </c>
       <c r="P1" s="47" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Q1" s="47" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="R1" s="47" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="S1" s="47" t="s">
         <v>595</v>
@@ -2691,7 +2688,7 @@
         <v>601</v>
       </c>
       <c r="V1" s="49" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -2705,7 +2702,7 @@
         <v>6001</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E2" s="2">
         <v>2021</v>
@@ -2755,7 +2752,7 @@
         <v>6002</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E3" s="2">
         <v>2021</v>
@@ -2805,7 +2802,7 @@
         <v>6003</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E4" s="2">
         <v>2021</v>
@@ -2855,7 +2852,7 @@
         <v>6004</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E5" s="2">
         <v>2021</v>
@@ -2905,7 +2902,7 @@
         <v>6005</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E6" s="2">
         <v>2021</v>
@@ -2955,7 +2952,7 @@
         <v>6006</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E7" s="2">
         <v>2021</v>
@@ -3005,7 +3002,7 @@
         <v>6007</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E8" s="2">
         <v>2021</v>
@@ -3055,7 +3052,7 @@
         <v>6008</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E9" s="2">
         <v>2021</v>
@@ -3105,7 +3102,7 @@
         <v>6009</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E10" s="2">
         <v>2021</v>
@@ -3155,7 +3152,7 @@
         <v>6010</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E11" s="2">
         <v>2021</v>
@@ -3205,7 +3202,7 @@
         <v>6011</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E12" s="2">
         <v>2021</v>
@@ -3255,7 +3252,7 @@
         <v>6012</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E13" s="2">
         <v>2021</v>
@@ -3305,7 +3302,7 @@
         <v>6013</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E14" s="2">
         <v>2021</v>
@@ -3355,7 +3352,7 @@
         <v>6014</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E15" s="2">
         <v>2021</v>
@@ -3405,7 +3402,7 @@
         <v>6015</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E16" s="2">
         <v>2021</v>
@@ -3455,7 +3452,7 @@
         <v>6016</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E17" s="2">
         <v>2021</v>
@@ -3505,7 +3502,7 @@
         <v>6017</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E18" s="2">
         <v>2021</v>
@@ -3534,7 +3531,7 @@
         <v>6018</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E19" s="2">
         <v>2021</v>
@@ -3584,7 +3581,7 @@
         <v>6019</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E20" s="2">
         <v>2021</v>
@@ -3634,7 +3631,7 @@
         <v>6020</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E21" s="2">
         <v>2021</v>
@@ -3684,7 +3681,7 @@
         <v>6021</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E22" s="2">
         <v>2021</v>
@@ -3734,7 +3731,7 @@
         <v>6022</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E23" s="2">
         <v>2021</v>
@@ -3784,7 +3781,7 @@
         <v>6023</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E24" s="2">
         <v>2021</v>
@@ -3834,7 +3831,7 @@
         <v>6024</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E25" s="2">
         <v>2021</v>
@@ -3884,7 +3881,7 @@
         <v>6025</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E26" s="2">
         <v>2021</v>
@@ -3934,7 +3931,7 @@
         <v>6026</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E27" s="2">
         <v>2021</v>
@@ -3984,7 +3981,7 @@
         <v>6027</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E28" s="2">
         <v>2021</v>
@@ -4034,7 +4031,7 @@
         <v>6028</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E29" s="2">
         <v>2021</v>
@@ -4084,7 +4081,7 @@
         <v>6029</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E30" s="2">
         <v>2021</v>
@@ -4134,7 +4131,7 @@
         <v>6030</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E31" s="2">
         <v>2021</v>
@@ -4184,7 +4181,7 @@
         <v>6031</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E32" s="2">
         <v>2021</v>
@@ -4234,7 +4231,7 @@
         <v>6032</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E33" s="2">
         <v>2021</v>
@@ -4284,7 +4281,7 @@
         <v>6033</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E34" s="2">
         <v>2021</v>
@@ -4334,7 +4331,7 @@
         <v>6034</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E35" s="2">
         <v>2021</v>
@@ -4384,7 +4381,7 @@
         <v>6035</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E36" s="2">
         <v>2021</v>
@@ -4434,7 +4431,7 @@
         <v>6036</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E37" s="2">
         <v>2021</v>
@@ -4484,7 +4481,7 @@
         <v>6037</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E38" s="2">
         <v>2021</v>
@@ -4534,7 +4531,7 @@
         <v>6038</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E39" s="2">
         <v>2021</v>
@@ -4584,7 +4581,7 @@
         <v>6039</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E40" s="2">
         <v>2021</v>
@@ -4634,7 +4631,7 @@
         <v>6040</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E41" s="2">
         <v>2021</v>
@@ -4684,7 +4681,7 @@
         <v>6041</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E42" s="2">
         <v>2021</v>
@@ -4734,7 +4731,7 @@
         <v>6042</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E43" s="2">
         <v>2021</v>
@@ -4784,7 +4781,7 @@
         <v>6043</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E44" s="2">
         <v>2021</v>
@@ -4834,7 +4831,7 @@
         <v>6044</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E45" s="2">
         <v>2021</v>
@@ -4884,7 +4881,7 @@
         <v>6045</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E46" s="2">
         <v>2021</v>
@@ -4934,7 +4931,7 @@
         <v>6046</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E47" s="2">
         <v>2021</v>
@@ -4984,7 +4981,7 @@
         <v>6047</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E48" s="2">
         <v>2021</v>
@@ -5034,7 +5031,7 @@
         <v>6048</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E49" s="2">
         <v>2021</v>
@@ -5084,7 +5081,7 @@
         <v>6049</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E50" s="2">
         <v>2021</v>
@@ -5134,7 +5131,7 @@
         <v>6050</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E51" s="2">
         <v>2021</v>
@@ -5184,7 +5181,7 @@
         <v>6051</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E52" s="2">
         <v>2021</v>
@@ -5234,7 +5231,7 @@
         <v>6052</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E53" s="2">
         <v>2021</v>
@@ -5284,7 +5281,7 @@
         <v>6053</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E54" s="2">
         <v>2021</v>
@@ -5334,7 +5331,7 @@
         <v>6054</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E55" s="2">
         <v>2021</v>
@@ -5384,7 +5381,7 @@
         <v>6055</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E56" s="2">
         <v>2021</v>
@@ -5434,7 +5431,7 @@
         <v>6056</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E57" s="2">
         <v>2021</v>
@@ -5484,7 +5481,7 @@
         <v>6057</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E58" s="2">
         <v>2021</v>
@@ -5534,7 +5531,7 @@
         <v>6058</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E59" s="2">
         <v>2021</v>
@@ -5584,7 +5581,7 @@
         <v>6059</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E60" s="2">
         <v>2021</v>
@@ -5634,7 +5631,7 @@
         <v>6060</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E61" s="2">
         <v>2021</v>
@@ -5684,7 +5681,7 @@
         <v>6061</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E62" s="2">
         <v>2021</v>
@@ -5734,7 +5731,7 @@
         <v>6062</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E63" s="2">
         <v>2021</v>
@@ -5784,7 +5781,7 @@
         <v>6063</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E64" s="2">
         <v>2021</v>
@@ -5834,7 +5831,7 @@
         <v>6064</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E65" s="2">
         <v>2021</v>
@@ -5884,7 +5881,7 @@
         <v>6065</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E66" s="2">
         <v>2021</v>
@@ -5934,7 +5931,7 @@
         <v>6066</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E67" s="2">
         <v>2021</v>
@@ -5984,7 +5981,7 @@
         <v>6067</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E68" s="2">
         <v>2021</v>
@@ -6034,7 +6031,7 @@
         <v>6068</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E69" s="2">
         <v>2021</v>
@@ -6084,7 +6081,7 @@
         <v>6069</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E70" s="2">
         <v>2021</v>
@@ -6134,7 +6131,7 @@
         <v>6070</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E71" s="2">
         <v>2021</v>
@@ -6184,7 +6181,7 @@
         <v>6071</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E72" s="2">
         <v>2021</v>
@@ -6234,7 +6231,7 @@
         <v>6072</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E73" s="2">
         <v>2021</v>
@@ -6284,7 +6281,7 @@
         <v>6073</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E74" s="2">
         <v>2021</v>
@@ -6334,7 +6331,7 @@
         <v>6074</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E75" s="2">
         <v>2021</v>
@@ -6384,7 +6381,7 @@
         <v>6075</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E76" s="2">
         <v>2021</v>
@@ -6434,7 +6431,7 @@
         <v>6076</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E77" s="2">
         <v>2021</v>
@@ -6484,7 +6481,7 @@
         <v>6077</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E78" s="2">
         <v>2021</v>
@@ -6534,7 +6531,7 @@
         <v>6078</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E79" s="2">
         <v>2021</v>
@@ -6584,7 +6581,7 @@
         <v>6079</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E80" s="2">
         <v>2021</v>
@@ -6634,7 +6631,7 @@
         <v>6080</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E81" s="2">
         <v>2021</v>
@@ -6684,7 +6681,7 @@
         <v>6081</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E82" s="2">
         <v>2021</v>
@@ -6734,7 +6731,7 @@
         <v>6082</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E83" s="2">
         <v>2021</v>
@@ -6784,7 +6781,7 @@
         <v>6083</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E84" s="2">
         <v>2021</v>
@@ -6834,7 +6831,7 @@
         <v>6084</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E85" s="2">
         <v>2021</v>
@@ -6884,7 +6881,7 @@
         <v>6085</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E86" s="2">
         <v>2021</v>
@@ -6934,7 +6931,7 @@
         <v>6086</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E87" s="2">
         <v>2021</v>
@@ -6984,7 +6981,7 @@
         <v>6087</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E88" s="2">
         <v>2021</v>
@@ -7034,7 +7031,7 @@
         <v>6088</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E89" s="2">
         <v>2021</v>
@@ -7084,7 +7081,7 @@
         <v>6089</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E90" s="2">
         <v>2021</v>
@@ -7134,7 +7131,7 @@
         <v>6090</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E91" s="2">
         <v>2021</v>
@@ -7184,7 +7181,7 @@
         <v>6091</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E92" s="2">
         <v>2021</v>
@@ -7234,7 +7231,7 @@
         <v>6092</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E93" s="2">
         <v>2021</v>
@@ -7284,7 +7281,7 @@
         <v>6093</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E94" s="2">
         <v>2021</v>
@@ -7334,7 +7331,7 @@
         <v>6094</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E95" s="2">
         <v>2021</v>
@@ -7384,7 +7381,7 @@
         <v>6095</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E96" s="2">
         <v>2021</v>
@@ -7434,7 +7431,7 @@
         <v>6096</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E97" s="2">
         <v>2021</v>
@@ -7484,7 +7481,7 @@
         <v>6097</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E98" s="2">
         <v>2021</v>
@@ -7534,7 +7531,7 @@
         <v>6098</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E99" s="2">
         <v>2021</v>
@@ -7584,7 +7581,7 @@
         <v>6099</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E100" s="2">
         <v>2021</v>
@@ -7634,7 +7631,7 @@
         <v>6100</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E101" s="2">
         <v>2021</v>
@@ -7684,7 +7681,7 @@
         <v>6101</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E102" s="2">
         <v>2021</v>
@@ -7734,7 +7731,7 @@
         <v>6102</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E103" s="2">
         <v>2021</v>
@@ -7784,7 +7781,7 @@
         <v>6103</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E104" s="2">
         <v>2021</v>
@@ -7834,7 +7831,7 @@
         <v>6104</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E105" s="2">
         <v>2021</v>
@@ -7884,7 +7881,7 @@
         <v>6105</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E106" s="2">
         <v>2021</v>
@@ -7934,7 +7931,7 @@
         <v>6106</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E107" s="2">
         <v>2021</v>
@@ -7984,7 +7981,7 @@
         <v>6107</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E108" s="2">
         <v>2021</v>
@@ -8034,7 +8031,7 @@
         <v>6108</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E109" s="2">
         <v>2021</v>
@@ -8084,7 +8081,7 @@
         <v>6109</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E110" s="2">
         <v>2021</v>
@@ -8134,7 +8131,7 @@
         <v>6110</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E111" s="2">
         <v>2021</v>
@@ -8184,7 +8181,7 @@
         <v>6111</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E112" s="2">
         <v>2021</v>
@@ -8234,7 +8231,7 @@
         <v>6112</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E113" s="2">
         <v>2021</v>
@@ -8284,7 +8281,7 @@
         <v>6113</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E114" s="2">
         <v>2021</v>
@@ -8334,7 +8331,7 @@
         <v>6114</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E115" s="2">
         <v>2021</v>
@@ -8384,7 +8381,7 @@
         <v>6115</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E116" s="2">
         <v>2021</v>
@@ -8434,7 +8431,7 @@
         <v>6116</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E117" s="2">
         <v>2021</v>
@@ -8484,7 +8481,7 @@
         <v>6117</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E118" s="2">
         <v>2021</v>
@@ -8534,7 +8531,7 @@
         <v>6118</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E119" s="2">
         <v>2021</v>
@@ -8584,7 +8581,7 @@
         <v>6119</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E120" s="2">
         <v>2021</v>
@@ -8634,7 +8631,7 @@
         <v>6120</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E121" s="2">
         <v>2021</v>
@@ -8684,7 +8681,7 @@
         <v>6121</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E122" s="2">
         <v>2021</v>
@@ -8734,7 +8731,7 @@
         <v>6122</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E123" s="2">
         <v>2021</v>
@@ -8784,7 +8781,7 @@
         <v>6123</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E124" s="2">
         <v>2021</v>
@@ -8834,7 +8831,7 @@
         <v>6124</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E125" s="2">
         <v>2021</v>
@@ -8884,7 +8881,7 @@
         <v>6125</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E126" s="2">
         <v>2021</v>
@@ -8934,7 +8931,7 @@
         <v>6126</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E127" s="2">
         <v>2021</v>
@@ -8984,7 +8981,7 @@
         <v>6127</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E128" s="2">
         <v>2021</v>
@@ -9034,7 +9031,7 @@
         <v>6128</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E129" s="2">
         <v>2021</v>
@@ -9084,7 +9081,7 @@
         <v>6129</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E130" s="2">
         <v>2021</v>
@@ -9134,7 +9131,7 @@
         <v>6130</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E131" s="2">
         <v>2021</v>
@@ -9184,7 +9181,7 @@
         <v>6131</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E132" s="2">
         <v>2021</v>
@@ -9234,7 +9231,7 @@
         <v>6132</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E133" s="2">
         <v>2021</v>
@@ -9284,7 +9281,7 @@
         <v>6133</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E134" s="2">
         <v>2021</v>
@@ -9334,7 +9331,7 @@
         <v>6134</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E135" s="2">
         <v>2021</v>
@@ -9384,7 +9381,7 @@
         <v>6135</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E136" s="2">
         <v>2021</v>
@@ -9434,7 +9431,7 @@
         <v>6136</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E137" s="2">
         <v>2021</v>
@@ -9484,7 +9481,7 @@
         <v>6137</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E138" s="2">
         <v>2021</v>
@@ -9534,7 +9531,7 @@
         <v>6138</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E139" s="2">
         <v>2021</v>
@@ -9584,7 +9581,7 @@
         <v>6139</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E140" s="2">
         <v>2021</v>
@@ -9634,7 +9631,7 @@
         <v>6140</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E141" s="2">
         <v>2021</v>
@@ -9684,7 +9681,7 @@
         <v>6141</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E142" s="2">
         <v>2021</v>
@@ -9734,7 +9731,7 @@
         <v>6142</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E143" s="2">
         <v>2021</v>
@@ -9784,7 +9781,7 @@
         <v>6143</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E144" s="2">
         <v>2021</v>
@@ -9834,7 +9831,7 @@
         <v>6144</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E145" s="2">
         <v>2021</v>
@@ -9884,7 +9881,7 @@
         <v>6145</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E146" s="2">
         <v>2021</v>
@@ -9934,7 +9931,7 @@
         <v>6146</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E147" s="2">
         <v>2021</v>
@@ -9984,7 +9981,7 @@
         <v>6147</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E148" s="2">
         <v>2021</v>
@@ -10034,7 +10031,7 @@
         <v>6148</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E149" s="2">
         <v>2021</v>
@@ -10084,7 +10081,7 @@
         <v>6149</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E150" s="2">
         <v>2021</v>
@@ -10134,7 +10131,7 @@
         <v>6150</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E151" s="2">
         <v>2021</v>
@@ -10184,7 +10181,7 @@
         <v>6151</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E152" s="2">
         <v>2021</v>
@@ -10234,7 +10231,7 @@
         <v>6152</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E153" s="2">
         <v>2021</v>
@@ -10284,7 +10281,7 @@
         <v>6153</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E154" s="2">
         <v>2021</v>
@@ -10334,7 +10331,7 @@
         <v>6154</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E155" s="2">
         <v>2021</v>
@@ -10384,7 +10381,7 @@
         <v>6155</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E156" s="2">
         <v>2021</v>
@@ -10434,7 +10431,7 @@
         <v>6156</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E157" s="2">
         <v>2021</v>
@@ -10484,7 +10481,7 @@
         <v>6157</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E158" s="2">
         <v>2021</v>
@@ -10534,7 +10531,7 @@
         <v>6158</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E159" s="2">
         <v>2021</v>
@@ -10584,7 +10581,7 @@
         <v>6159</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E160" s="2">
         <v>2021</v>
@@ -10634,7 +10631,7 @@
         <v>6160</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E161" s="2">
         <v>2021</v>
@@ -10684,7 +10681,7 @@
         <v>6161</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E162" s="2">
         <v>2021</v>
@@ -10734,7 +10731,7 @@
         <v>6162</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E163" s="2">
         <v>2021</v>
@@ -10784,7 +10781,7 @@
         <v>6163</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E164" s="2">
         <v>2021</v>
@@ -10834,7 +10831,7 @@
         <v>6164</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E165" s="2">
         <v>2021</v>
@@ -10884,7 +10881,7 @@
         <v>6165</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E166" s="2">
         <v>2021</v>
@@ -10934,7 +10931,7 @@
         <v>6166</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E167" s="2">
         <v>2021</v>
@@ -10984,7 +10981,7 @@
         <v>6167</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E168" s="2">
         <v>2021</v>
@@ -11034,7 +11031,7 @@
         <v>6168</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E169" s="2">
         <v>2021</v>
@@ -11084,7 +11081,7 @@
         <v>6169</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E170" s="2">
         <v>2021</v>
@@ -11134,7 +11131,7 @@
         <v>6170</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E171" s="2">
         <v>2021</v>
@@ -11184,7 +11181,7 @@
         <v>6171</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E172" s="2">
         <v>2021</v>
@@ -11234,7 +11231,7 @@
         <v>6172</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E173" s="2">
         <v>2021</v>
@@ -11284,7 +11281,7 @@
         <v>6173</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E174" s="2">
         <v>2021</v>
@@ -11334,7 +11331,7 @@
         <v>6174</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E175" s="2">
         <v>2021</v>
@@ -11384,7 +11381,7 @@
         <v>6175</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E176" s="2">
         <v>2021</v>
@@ -11434,7 +11431,7 @@
         <v>6176</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E177" s="2">
         <v>2021</v>
@@ -11484,7 +11481,7 @@
         <v>6177</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E178" s="2">
         <v>2021</v>
@@ -11534,7 +11531,7 @@
         <v>6178</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E179" s="2">
         <v>2021</v>
@@ -11584,7 +11581,7 @@
         <v>6179</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E180" s="2">
         <v>2021</v>
@@ -11634,7 +11631,7 @@
         <v>6180</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E181" s="2">
         <v>2021</v>
@@ -11684,7 +11681,7 @@
         <v>6181</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E182" s="2">
         <v>2021</v>
@@ -11734,7 +11731,7 @@
         <v>6182</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E183" s="2">
         <v>2021</v>
@@ -11784,7 +11781,7 @@
         <v>6183</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E184" s="2">
         <v>2021</v>
@@ -11834,7 +11831,7 @@
         <v>6184</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E185" s="2">
         <v>2021</v>
@@ -11884,7 +11881,7 @@
         <v>6185</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E186" s="2">
         <v>2021</v>
@@ -11934,7 +11931,7 @@
         <v>6186</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E187" s="2">
         <v>2021</v>
@@ -11984,7 +11981,7 @@
         <v>6187</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E188" s="2">
         <v>2021</v>
@@ -12034,7 +12031,7 @@
         <v>6188</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E189" s="2">
         <v>2021</v>
@@ -12084,7 +12081,7 @@
         <v>6189</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E190" s="2">
         <v>2021</v>
@@ -12134,7 +12131,7 @@
         <v>6190</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E191" s="2">
         <v>2021</v>
@@ -12184,7 +12181,7 @@
         <v>6191</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E192" s="2">
         <v>2021</v>
@@ -12234,7 +12231,7 @@
         <v>6192</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E193" s="2">
         <v>2021</v>
@@ -12284,7 +12281,7 @@
         <v>6193</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E194" s="2">
         <v>2021</v>
@@ -12334,7 +12331,7 @@
         <v>6194</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E195" s="2">
         <v>2021</v>
@@ -12384,7 +12381,7 @@
         <v>6195</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E196" s="2">
         <v>2021</v>
@@ -12434,7 +12431,7 @@
         <v>6196</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E197" s="2">
         <v>2021</v>
@@ -12484,7 +12481,7 @@
         <v>6197</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E198" s="2">
         <v>2021</v>
@@ -12534,7 +12531,7 @@
         <v>6198</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E199" s="2">
         <v>2021</v>
@@ -12584,7 +12581,7 @@
         <v>6199</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E200" s="2">
         <v>2021</v>
@@ -12634,7 +12631,7 @@
         <v>6200</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E201" s="2">
         <v>2021</v>
@@ -12684,7 +12681,7 @@
         <v>6201</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E202" s="2">
         <v>2021</v>
@@ -12734,7 +12731,7 @@
         <v>6202</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E203" s="2">
         <v>2021</v>
@@ -12784,7 +12781,7 @@
         <v>6203</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E204" s="2">
         <v>2021</v>
@@ -12834,7 +12831,7 @@
         <v>6204</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E205" s="2">
         <v>2021</v>
@@ -12884,7 +12881,7 @@
         <v>6205</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E206" s="2">
         <v>2021</v>
@@ -12934,7 +12931,7 @@
         <v>6206</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E207" s="2">
         <v>2021</v>
@@ -12984,7 +12981,7 @@
         <v>6207</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E208" s="2">
         <v>2021</v>
@@ -13034,7 +13031,7 @@
         <v>6208</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E209" s="2">
         <v>2021</v>
@@ -13084,7 +13081,7 @@
         <v>6209</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E210" s="2">
         <v>2021</v>
@@ -13134,7 +13131,7 @@
         <v>6210</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E211" s="2">
         <v>2021</v>
@@ -13184,7 +13181,7 @@
         <v>6211</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E212" s="2">
         <v>2021</v>
@@ -13234,7 +13231,7 @@
         <v>6212</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E213" s="2">
         <v>2021</v>
@@ -13284,7 +13281,7 @@
         <v>6213</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E214" s="2">
         <v>2021</v>
@@ -13334,7 +13331,7 @@
         <v>6214</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E215" s="2">
         <v>2021</v>
@@ -13384,7 +13381,7 @@
         <v>6215</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E216" s="2">
         <v>2021</v>
@@ -13434,7 +13431,7 @@
         <v>6216</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E217" s="2">
         <v>2021</v>
@@ -13484,7 +13481,7 @@
         <v>6217</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E218" s="2">
         <v>2021</v>
@@ -13534,7 +13531,7 @@
         <v>6218</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E219" s="2">
         <v>2021</v>
@@ -13584,7 +13581,7 @@
         <v>6219</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E220" s="2">
         <v>2021</v>
@@ -13634,7 +13631,7 @@
         <v>6220</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E221" s="2">
         <v>2021</v>
@@ -13684,7 +13681,7 @@
         <v>6221</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E222" s="2">
         <v>2021</v>
@@ -13734,7 +13731,7 @@
         <v>6222</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E223" s="2">
         <v>2021</v>
@@ -13784,7 +13781,7 @@
         <v>6223</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E224" s="2">
         <v>2021</v>
@@ -13834,7 +13831,7 @@
         <v>6224</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E225" s="2">
         <v>2021</v>
@@ -13884,7 +13881,7 @@
         <v>6225</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E226" s="2">
         <v>2021</v>
@@ -13934,7 +13931,7 @@
         <v>6226</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E227" s="2">
         <v>2021</v>
@@ -13984,7 +13981,7 @@
         <v>6227</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E228" s="2">
         <v>2021</v>
@@ -14034,7 +14031,7 @@
         <v>6228</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E229" s="2">
         <v>2021</v>
@@ -14084,7 +14081,7 @@
         <v>6229</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E230" s="2">
         <v>2021</v>
@@ -14134,7 +14131,7 @@
         <v>6230</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E231" s="2">
         <v>2021</v>
@@ -14184,7 +14181,7 @@
         <v>6231</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E232" s="2">
         <v>2021</v>
@@ -14234,7 +14231,7 @@
         <v>6232</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E233" s="2">
         <v>2021</v>
@@ -14284,7 +14281,7 @@
         <v>6233</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E234" s="2">
         <v>2021</v>
@@ -14334,7 +14331,7 @@
         <v>6234</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E235" s="2">
         <v>2021</v>
@@ -14384,7 +14381,7 @@
         <v>6235</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E236" s="2">
         <v>2021</v>
@@ -14434,7 +14431,7 @@
         <v>6236</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E237" s="2">
         <v>2021</v>
@@ -14484,7 +14481,7 @@
         <v>6237</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E238" s="2">
         <v>2021</v>
@@ -14534,7 +14531,7 @@
         <v>6238</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E239" s="2">
         <v>2021</v>
@@ -14584,7 +14581,7 @@
         <v>6239</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E240" s="2">
         <v>2021</v>
@@ -14634,7 +14631,7 @@
         <v>6240</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E241" s="2">
         <v>2021</v>
@@ -14684,7 +14681,7 @@
         <v>6241</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E242" s="2">
         <v>2021</v>
@@ -14734,7 +14731,7 @@
         <v>6242</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E243" s="2">
         <v>2021</v>
@@ -14784,7 +14781,7 @@
         <v>6243</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E244" s="2">
         <v>2021</v>
@@ -14834,7 +14831,7 @@
         <v>6244</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E245" s="2">
         <v>2021</v>
@@ -14884,7 +14881,7 @@
         <v>6245</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E246" s="2">
         <v>2021</v>
@@ -14934,7 +14931,7 @@
         <v>6246</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E247" s="2">
         <v>2021</v>
@@ -14984,7 +14981,7 @@
         <v>6247</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E248" s="2">
         <v>2021</v>
@@ -15034,7 +15031,7 @@
         <v>6248</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E249" s="2">
         <v>2021</v>
@@ -15084,7 +15081,7 @@
         <v>6249</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E250" s="2">
         <v>2021</v>
@@ -15134,7 +15131,7 @@
         <v>6250</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E251" s="2">
         <v>2021</v>
@@ -15184,7 +15181,7 @@
         <v>6251</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E252" s="2">
         <v>2021</v>
@@ -15234,7 +15231,7 @@
         <v>6252</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E253" s="2">
         <v>2021</v>
@@ -15284,7 +15281,7 @@
         <v>6253</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E254" s="2">
         <v>2021</v>
@@ -15334,7 +15331,7 @@
         <v>6254</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E255" s="2">
         <v>2021</v>
@@ -15384,7 +15381,7 @@
         <v>6255</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E256" s="2">
         <v>2021</v>
@@ -15434,7 +15431,7 @@
         <v>6256</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E257" s="2">
         <v>2021</v>
@@ -15484,7 +15481,7 @@
         <v>6257</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E258" s="2">
         <v>2021</v>
@@ -15534,7 +15531,7 @@
         <v>6258</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E259" s="2">
         <v>2021</v>
@@ -15584,7 +15581,7 @@
         <v>6259</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E260" s="2">
         <v>2021</v>
@@ -15634,7 +15631,7 @@
         <v>6260</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E261" s="2">
         <v>2021</v>
@@ -15684,7 +15681,7 @@
         <v>6261</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E262" s="2">
         <v>2021</v>
@@ -15734,7 +15731,7 @@
         <v>6262</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E263" s="2">
         <v>2021</v>
@@ -15784,7 +15781,7 @@
         <v>6263</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E264" s="2">
         <v>2021</v>
@@ -15834,7 +15831,7 @@
         <v>6264</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E265" s="2">
         <v>2021</v>
@@ -15884,7 +15881,7 @@
         <v>6265</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E266" s="2">
         <v>2021</v>
@@ -15934,7 +15931,7 @@
         <v>6266</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E267" s="2">
         <v>2021</v>
@@ -15984,7 +15981,7 @@
         <v>6267</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E268" s="2">
         <v>2021</v>
@@ -16034,7 +16031,7 @@
         <v>6268</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E269" s="2">
         <v>2021</v>
@@ -16084,7 +16081,7 @@
         <v>6269</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E270" s="2">
         <v>2021</v>
@@ -16134,7 +16131,7 @@
         <v>6270</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E271" s="2">
         <v>2021</v>
@@ -16184,7 +16181,7 @@
         <v>6271</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E272" s="2">
         <v>2021</v>
@@ -16234,7 +16231,7 @@
         <v>6272</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E273" s="2">
         <v>2021</v>
@@ -16284,7 +16281,7 @@
         <v>6273</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E274" s="2">
         <v>2021</v>
@@ -16334,7 +16331,7 @@
         <v>6274</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E275" s="2">
         <v>2021</v>
@@ -16384,7 +16381,7 @@
         <v>6275</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E276" s="2">
         <v>2021</v>
@@ -16434,7 +16431,7 @@
         <v>6276</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E277" s="2">
         <v>2021</v>
@@ -16473,7 +16470,7 @@
         <v>0</v>
       </c>
       <c r="V277" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="278" spans="1:22">
@@ -16487,7 +16484,7 @@
         <v>6277</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E278" s="2">
         <v>2021</v>
@@ -16537,7 +16534,7 @@
         <v>6278</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E279" s="2">
         <v>2021</v>
@@ -16587,7 +16584,7 @@
         <v>6279</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E280" s="2">
         <v>2021</v>
@@ -16637,7 +16634,7 @@
         <v>6280</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E281" s="2">
         <v>2021</v>
@@ -16687,7 +16684,7 @@
         <v>6281</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E282" s="2">
         <v>2021</v>
@@ -16737,7 +16734,7 @@
         <v>6282</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E283" s="2">
         <v>2021</v>
@@ -16787,7 +16784,7 @@
         <v>6283</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E284" s="2">
         <v>2021</v>
@@ -16837,7 +16834,7 @@
         <v>6284</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E285" s="2">
         <v>2021</v>
@@ -16887,7 +16884,7 @@
         <v>6285</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E286" s="2">
         <v>2021</v>
@@ -16937,7 +16934,7 @@
         <v>6286</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E287" s="2">
         <v>2021</v>
@@ -16987,7 +16984,7 @@
         <v>6287</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E288" s="2">
         <v>2021</v>
@@ -17037,7 +17034,7 @@
         <v>6288</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E289" s="2">
         <v>2021</v>
@@ -17087,7 +17084,7 @@
         <v>6289</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E290" s="2">
         <v>2021</v>
@@ -17137,7 +17134,7 @@
         <v>6290</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E291" s="2">
         <v>2021</v>
@@ -17187,7 +17184,7 @@
         <v>6291</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E292" s="2">
         <v>2021</v>
@@ -17237,7 +17234,7 @@
         <v>6292</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E293" s="2">
         <v>2021</v>
@@ -17287,7 +17284,7 @@
         <v>6293</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E294" s="2">
         <v>2021</v>
@@ -17337,7 +17334,7 @@
         <v>6294</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E295" s="2">
         <v>2021</v>
@@ -17387,7 +17384,7 @@
         <v>6295</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E296" s="2">
         <v>2021</v>
@@ -17437,7 +17434,7 @@
         <v>6296</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E297" s="2">
         <v>2021</v>
@@ -17487,7 +17484,7 @@
         <v>6297</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E298" s="2">
         <v>2021</v>
@@ -17537,7 +17534,7 @@
         <v>6298</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E299" s="2">
         <v>2021</v>
@@ -17587,7 +17584,7 @@
         <v>6299</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E300" s="2">
         <v>2021</v>
@@ -17637,7 +17634,7 @@
         <v>6300</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E301" s="2">
         <v>2021</v>
@@ -17687,7 +17684,7 @@
         <v>6301</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E302" s="2">
         <v>2021</v>
@@ -17737,7 +17734,7 @@
         <v>6302</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E303" s="2">
         <v>2021</v>
@@ -17787,7 +17784,7 @@
         <v>6303</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E304" s="2">
         <v>2021</v>
@@ -17837,7 +17834,7 @@
         <v>6304</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E305" s="2">
         <v>2021</v>
@@ -17887,7 +17884,7 @@
         <v>6305</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E306" s="2">
         <v>2021</v>
@@ -17937,7 +17934,7 @@
         <v>6306</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E307" s="2">
         <v>2021</v>
@@ -17987,7 +17984,7 @@
         <v>6307</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E308" s="2">
         <v>2021</v>
@@ -18037,7 +18034,7 @@
         <v>6308</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E309" s="2">
         <v>2021</v>
@@ -18087,7 +18084,7 @@
         <v>6309</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E310" s="2">
         <v>2021</v>
@@ -18137,7 +18134,7 @@
         <v>6310</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E311" s="2">
         <v>2021</v>
@@ -18187,7 +18184,7 @@
         <v>6311</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E312" s="2">
         <v>2021</v>
@@ -18237,7 +18234,7 @@
         <v>6312</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E313" s="2">
         <v>2021</v>
@@ -18287,7 +18284,7 @@
         <v>6313</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E314" s="2">
         <v>2021</v>
@@ -18337,7 +18334,7 @@
         <v>6314</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E315" s="2">
         <v>2021</v>
@@ -18387,7 +18384,7 @@
         <v>6315</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E316" s="2">
         <v>2021</v>
@@ -18437,7 +18434,7 @@
         <v>6316</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E317" s="2">
         <v>2021</v>
@@ -18487,7 +18484,7 @@
         <v>6317</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E318" s="2">
         <v>2021</v>
@@ -18537,7 +18534,7 @@
         <v>6318</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E319" s="2">
         <v>2021</v>
@@ -18587,7 +18584,7 @@
         <v>6319</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E320" s="2">
         <v>2021</v>
@@ -18637,7 +18634,7 @@
         <v>6320</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E321" s="2">
         <v>2021</v>
@@ -18687,7 +18684,7 @@
         <v>6321</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E322" s="2">
         <v>2021</v>
@@ -18737,7 +18734,7 @@
         <v>6322</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E323" s="2">
         <v>2021</v>
@@ -18787,7 +18784,7 @@
         <v>6323</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E324" s="2">
         <v>2021</v>
@@ -18837,7 +18834,7 @@
         <v>6324</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E325" s="2">
         <v>2021</v>
@@ -18887,7 +18884,7 @@
         <v>6325</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E326" s="2">
         <v>2021</v>
@@ -18937,7 +18934,7 @@
         <v>6326</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E327" s="2">
         <v>2021</v>
@@ -18987,7 +18984,7 @@
         <v>6327</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E328" s="2">
         <v>2021</v>
@@ -19037,7 +19034,7 @@
         <v>6328</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E329" s="2">
         <v>2021</v>
@@ -19087,7 +19084,7 @@
         <v>6329</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E330" s="2">
         <v>2021</v>
@@ -19137,7 +19134,7 @@
         <v>6330</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E331" s="2">
         <v>2021</v>
@@ -19187,7 +19184,7 @@
         <v>6331</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E332" s="2">
         <v>2021</v>
@@ -19237,7 +19234,7 @@
         <v>6332</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E333" s="2">
         <v>2021</v>
@@ -19287,7 +19284,7 @@
         <v>6333</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E334" s="2">
         <v>2021</v>
@@ -19337,7 +19334,7 @@
         <v>6334</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E335" s="2">
         <v>2021</v>
@@ -19387,7 +19384,7 @@
         <v>6335</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E336" s="2">
         <v>2021</v>
@@ -19437,7 +19434,7 @@
         <v>6336</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E337" s="2">
         <v>2021</v>
@@ -19487,7 +19484,7 @@
         <v>6337</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E338" s="2">
         <v>2021</v>
@@ -19537,7 +19534,7 @@
         <v>6338</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E339" s="2">
         <v>2021</v>
@@ -19587,7 +19584,7 @@
         <v>6339</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E340" s="2">
         <v>2021</v>
@@ -19637,7 +19634,7 @@
         <v>6340</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E341" s="2">
         <v>2021</v>
@@ -19687,7 +19684,7 @@
         <v>6341</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E342" s="2">
         <v>2021</v>
@@ -19737,7 +19734,7 @@
         <v>6342</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E343" s="2">
         <v>2021</v>
@@ -19787,7 +19784,7 @@
         <v>6343</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E344" s="2">
         <v>2021</v>
@@ -19837,7 +19834,7 @@
         <v>6344</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E345" s="2">
         <v>2021</v>
@@ -19887,7 +19884,7 @@
         <v>6345</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E346" s="2">
         <v>2021</v>
@@ -19937,7 +19934,7 @@
         <v>6346</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E347" s="2">
         <v>2021</v>
@@ -19987,7 +19984,7 @@
         <v>6347</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E348" s="2">
         <v>2021</v>
@@ -20037,7 +20034,7 @@
         <v>6348</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E349" s="2">
         <v>2021</v>
@@ -20087,7 +20084,7 @@
         <v>6349</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E350" s="2">
         <v>2021</v>
@@ -20137,7 +20134,7 @@
         <v>6350</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E351" s="2">
         <v>2021</v>
@@ -20187,7 +20184,7 @@
         <v>6351</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E352" s="2">
         <v>2021</v>
@@ -20237,7 +20234,7 @@
         <v>6352</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E353" s="2">
         <v>2021</v>
@@ -20287,7 +20284,7 @@
         <v>6353</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E354" s="2">
         <v>2021</v>
@@ -20337,7 +20334,7 @@
         <v>6354</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E355" s="2">
         <v>2021</v>
@@ -20387,7 +20384,7 @@
         <v>6355</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E356" s="2">
         <v>2021</v>
@@ -20437,7 +20434,7 @@
         <v>6356</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E357" s="2">
         <v>2021</v>
@@ -20487,7 +20484,7 @@
         <v>6357</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E358" s="2">
         <v>2021</v>
@@ -20537,7 +20534,7 @@
         <v>6358</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E359" s="2">
         <v>2021</v>
@@ -20587,7 +20584,7 @@
         <v>6359</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E360" s="2">
         <v>2021</v>
@@ -20637,7 +20634,7 @@
         <v>6360</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E361" s="2">
         <v>2021</v>
@@ -20687,7 +20684,7 @@
         <v>6361</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E362" s="2">
         <v>2021</v>
@@ -20737,7 +20734,7 @@
         <v>6362</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E363" s="2">
         <v>2021</v>
@@ -20787,7 +20784,7 @@
         <v>6363</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E364" s="2">
         <v>2021</v>
@@ -20837,7 +20834,7 @@
         <v>6364</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E365" s="2">
         <v>2021</v>
@@ -20887,7 +20884,7 @@
         <v>6365</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E366" s="2">
         <v>2021</v>
@@ -20937,7 +20934,7 @@
         <v>6366</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E367" s="2">
         <v>2021</v>
@@ -20987,7 +20984,7 @@
         <v>6367</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E368" s="2">
         <v>2021</v>
@@ -21037,7 +21034,7 @@
         <v>6368</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E369" s="2">
         <v>2021</v>
@@ -21087,7 +21084,7 @@
         <v>6369</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E370" s="2">
         <v>2021</v>
@@ -21137,7 +21134,7 @@
         <v>6370</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E371" s="2">
         <v>2021</v>
@@ -21187,7 +21184,7 @@
         <v>6371</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E372" s="2">
         <v>2021</v>
@@ -21237,7 +21234,7 @@
         <v>6372</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E373" s="2">
         <v>2021</v>
@@ -21287,7 +21284,7 @@
         <v>6373</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E374" s="2">
         <v>2021</v>
@@ -21337,7 +21334,7 @@
         <v>6374</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E375" s="2">
         <v>2021</v>
@@ -21387,7 +21384,7 @@
         <v>6375</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E376" s="2">
         <v>2021</v>
@@ -21437,7 +21434,7 @@
         <v>6376</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E377" s="2">
         <v>2021</v>
@@ -21487,7 +21484,7 @@
         <v>6377</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E378" s="2">
         <v>2021</v>
@@ -21537,7 +21534,7 @@
         <v>6378</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E379" s="2">
         <v>2021</v>
@@ -21587,7 +21584,7 @@
         <v>6379</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E380" s="2">
         <v>2021</v>
@@ -21637,7 +21634,7 @@
         <v>6380</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E381" s="2">
         <v>2021</v>
@@ -21687,7 +21684,7 @@
         <v>6381</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E382" s="2">
         <v>2021</v>
@@ -21737,7 +21734,7 @@
         <v>6382</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E383" s="2">
         <v>2021</v>
@@ -21787,7 +21784,7 @@
         <v>6383</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E384" s="2">
         <v>2021</v>
@@ -21837,7 +21834,7 @@
         <v>6384</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E385" s="2">
         <v>2021</v>
@@ -21887,7 +21884,7 @@
         <v>6385</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E386" s="2">
         <v>2021</v>
@@ -21937,7 +21934,7 @@
         <v>6386</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E387" s="2">
         <v>2021</v>
@@ -21987,7 +21984,7 @@
         <v>6387</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E388" s="2">
         <v>2021</v>
@@ -22037,7 +22034,7 @@
         <v>6388</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E389" s="2">
         <v>2021</v>
@@ -22087,7 +22084,7 @@
         <v>6389</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E390" s="2">
         <v>2021</v>
@@ -22137,7 +22134,7 @@
         <v>6390</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E391" s="2">
         <v>2021</v>
@@ -22187,7 +22184,7 @@
         <v>6391</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E392" s="2">
         <v>2021</v>
@@ -22237,7 +22234,7 @@
         <v>6392</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E393" s="2">
         <v>2021</v>
@@ -22287,7 +22284,7 @@
         <v>6393</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E394" s="2">
         <v>2021</v>
@@ -22337,7 +22334,7 @@
         <v>6394</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E395" s="2">
         <v>2021</v>
@@ -22387,7 +22384,7 @@
         <v>6395</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E396" s="2">
         <v>2021</v>
@@ -22437,7 +22434,7 @@
         <v>6396</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E397" s="2">
         <v>2021</v>
@@ -22487,7 +22484,7 @@
         <v>6397</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E398" s="2">
         <v>2021</v>
@@ -22537,7 +22534,7 @@
         <v>6398</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E399" s="2">
         <v>2021</v>
@@ -22587,7 +22584,7 @@
         <v>6399</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E400" s="2">
         <v>2021</v>
@@ -22637,7 +22634,7 @@
         <v>6400</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E401" s="2">
         <v>2021</v>
@@ -22687,7 +22684,7 @@
         <v>6401</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E402" s="2">
         <v>2021</v>
@@ -22737,7 +22734,7 @@
         <v>6402</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E403" s="2">
         <v>2021</v>
@@ -22787,7 +22784,7 @@
         <v>6403</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E404" s="2">
         <v>2021</v>
@@ -22837,7 +22834,7 @@
         <v>6404</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E405" s="2">
         <v>2021</v>
@@ -22887,7 +22884,7 @@
         <v>6405</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E406" s="2">
         <v>2021</v>
@@ -22937,7 +22934,7 @@
         <v>6406</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E407" s="2">
         <v>2021</v>
@@ -22987,7 +22984,7 @@
         <v>6407</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E408" s="2">
         <v>2021</v>
@@ -23037,7 +23034,7 @@
         <v>6408</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E409" s="2">
         <v>2021</v>
@@ -23087,7 +23084,7 @@
         <v>6409</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E410" s="2">
         <v>2021</v>
@@ -23137,7 +23134,7 @@
         <v>6410</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E411" s="2">
         <v>2021</v>
@@ -23187,7 +23184,7 @@
         <v>6411</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E412" s="2">
         <v>2021</v>
@@ -23237,7 +23234,7 @@
         <v>6412</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E413" s="2">
         <v>2021</v>
@@ -23287,7 +23284,7 @@
         <v>6413</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E414" s="2">
         <v>2021</v>
@@ -23337,7 +23334,7 @@
         <v>6414</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E415" s="2">
         <v>2021</v>
@@ -23387,7 +23384,7 @@
         <v>6415</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E416" s="2">
         <v>2021</v>
@@ -23437,7 +23434,7 @@
         <v>6416</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E417" s="2">
         <v>2021</v>
@@ -23487,7 +23484,7 @@
         <v>6417</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E418" s="2">
         <v>2021</v>
@@ -23537,7 +23534,7 @@
         <v>6418</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E419" s="2">
         <v>2021</v>
@@ -23587,7 +23584,7 @@
         <v>6419</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E420" s="2">
         <v>2021</v>
@@ -23637,7 +23634,7 @@
         <v>6420</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E421" s="2">
         <v>2021</v>
@@ -23687,7 +23684,7 @@
         <v>6421</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E422" s="2">
         <v>2021</v>
@@ -23737,7 +23734,7 @@
         <v>6422</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E423" s="2">
         <v>2021</v>
@@ -23787,7 +23784,7 @@
         <v>6423</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E424" s="2">
         <v>2021</v>
@@ -23837,7 +23834,7 @@
         <v>6424</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E425" s="2">
         <v>2021</v>
@@ -23887,7 +23884,7 @@
         <v>6425</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E426" s="2">
         <v>2021</v>
@@ -23937,7 +23934,7 @@
         <v>6426</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E427" s="2">
         <v>2021</v>
@@ -23987,7 +23984,7 @@
         <v>6427</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E428" s="2">
         <v>2021</v>
@@ -24037,7 +24034,7 @@
         <v>6428</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E429" s="2">
         <v>2021</v>
@@ -24087,7 +24084,7 @@
         <v>6429</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E430" s="2">
         <v>2021</v>
@@ -24137,7 +24134,7 @@
         <v>6430</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E431" s="2">
         <v>2021</v>
@@ -24187,7 +24184,7 @@
         <v>6431</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E432" s="2">
         <v>2021</v>
@@ -24237,7 +24234,7 @@
         <v>6432</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E433" s="2">
         <v>2021</v>
@@ -24287,7 +24284,7 @@
         <v>6433</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E434" s="2">
         <v>2021</v>
@@ -24337,7 +24334,7 @@
         <v>6434</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E435" s="2">
         <v>2021</v>
@@ -24387,7 +24384,7 @@
         <v>6435</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E436" s="2">
         <v>2021</v>
@@ -24437,7 +24434,7 @@
         <v>6436</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E437" s="2">
         <v>2021</v>
@@ -24487,7 +24484,7 @@
         <v>6437</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E438" s="2">
         <v>2021</v>
@@ -24537,7 +24534,7 @@
         <v>6438</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E439" s="2">
         <v>2021</v>
@@ -24587,7 +24584,7 @@
         <v>6439</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E440" s="2">
         <v>2021</v>
@@ -24637,7 +24634,7 @@
         <v>6440</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E441" s="2">
         <v>2021</v>
@@ -24687,7 +24684,7 @@
         <v>6441</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E442" s="2">
         <v>2021</v>
@@ -24737,7 +24734,7 @@
         <v>6442</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E443" s="2">
         <v>2021</v>
@@ -24787,7 +24784,7 @@
         <v>6443</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E444" s="2">
         <v>2021</v>
@@ -24837,7 +24834,7 @@
         <v>6444</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E445" s="2">
         <v>2021</v>
@@ -24887,7 +24884,7 @@
         <v>6445</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E446" s="2">
         <v>2021</v>
@@ -24937,7 +24934,7 @@
         <v>6446</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E447" s="2">
         <v>2021</v>
@@ -24987,7 +24984,7 @@
         <v>6447</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E448" s="2">
         <v>2021</v>
@@ -25037,7 +25034,7 @@
         <v>6448</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E449" s="2">
         <v>2021</v>
@@ -25087,7 +25084,7 @@
         <v>6449</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E450" s="2">
         <v>2021</v>
@@ -25137,7 +25134,7 @@
         <v>6450</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E451" s="2">
         <v>2021</v>
@@ -25187,7 +25184,7 @@
         <v>6451</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E452" s="2">
         <v>2021</v>
@@ -25237,7 +25234,7 @@
         <v>6452</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E453" s="2">
         <v>2021</v>
@@ -25287,7 +25284,7 @@
         <v>6453</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E454" s="2">
         <v>2021</v>
@@ -25337,7 +25334,7 @@
         <v>6454</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E455" s="2">
         <v>2021</v>
@@ -25387,7 +25384,7 @@
         <v>6455</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E456" s="2">
         <v>2021</v>
@@ -25437,7 +25434,7 @@
         <v>6456</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E457" s="2">
         <v>2021</v>
@@ -25487,7 +25484,7 @@
         <v>6457</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E458" s="2">
         <v>2021</v>
@@ -25537,7 +25534,7 @@
         <v>6458</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E459" s="2">
         <v>2021</v>
@@ -25587,7 +25584,7 @@
         <v>6459</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E460" s="2">
         <v>2021</v>
@@ -25637,7 +25634,7 @@
         <v>6460</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E461" s="2">
         <v>2021</v>
@@ -25687,7 +25684,7 @@
         <v>6461</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E462" s="2">
         <v>2021</v>
@@ -25737,7 +25734,7 @@
         <v>6462</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E463" s="2">
         <v>2021</v>
@@ -25787,7 +25784,7 @@
         <v>6463</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E464" s="2">
         <v>2021</v>
@@ -25837,7 +25834,7 @@
         <v>6464</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E465" s="2">
         <v>2021</v>
@@ -25887,7 +25884,7 @@
         <v>6465</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E466" s="2">
         <v>2021</v>
@@ -25937,7 +25934,7 @@
         <v>6466</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E467" s="2">
         <v>2021</v>
@@ -25987,7 +25984,7 @@
         <v>6467</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E468" s="2">
         <v>2021</v>
@@ -26037,7 +26034,7 @@
         <v>6468</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E469" s="2">
         <v>2021</v>
@@ -26087,7 +26084,7 @@
         <v>6469</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E470" s="2">
         <v>2021</v>
@@ -26137,7 +26134,7 @@
         <v>6470</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E471" s="2">
         <v>2021</v>
@@ -26187,7 +26184,7 @@
         <v>6471</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E472" s="2">
         <v>2021</v>
@@ -26237,7 +26234,7 @@
         <v>6472</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E473" s="2">
         <v>2021</v>
@@ -26287,7 +26284,7 @@
         <v>6473</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E474" s="2">
         <v>2021</v>
@@ -26337,7 +26334,7 @@
         <v>6474</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E475" s="2">
         <v>2021</v>
@@ -26387,7 +26384,7 @@
         <v>6475</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E476" s="2">
         <v>2021</v>
@@ -26437,7 +26434,7 @@
         <v>6476</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E477" s="2">
         <v>2021</v>
@@ -26487,7 +26484,7 @@
         <v>6477</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E478" s="2">
         <v>2021</v>
@@ -26537,7 +26534,7 @@
         <v>6478</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E479" s="2">
         <v>2021</v>
@@ -26587,7 +26584,7 @@
         <v>6479</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E480" s="2">
         <v>2021</v>
@@ -26637,7 +26634,7 @@
         <v>6480</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E481" s="2">
         <v>2021</v>
@@ -26676,7 +26673,7 @@
         <v>0</v>
       </c>
       <c r="V481" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -26693,11 +26690,11 @@
   <dimension ref="A1:Y481"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="B412" sqref="B412"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -26715,22 +26712,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="48" t="s">
+        <v>615</v>
+      </c>
+      <c r="D1" s="48" t="s">
         <v>616</v>
       </c>
-      <c r="D1" s="48" t="s">
-        <v>617</v>
-      </c>
       <c r="E1" s="48" t="s">
+        <v>620</v>
+      </c>
+      <c r="F1" s="48" t="s">
         <v>621</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>622</v>
       </c>
       <c r="G1" s="47" t="s">
         <v>585</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I1" s="47" t="s">
         <v>593</v>
@@ -26754,13 +26751,13 @@
         <v>600</v>
       </c>
       <c r="P1" s="47" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q1" s="47" t="s">
+        <v>619</v>
+      </c>
+      <c r="R1" s="47" t="s">
         <v>609</v>
-      </c>
-      <c r="Q1" s="47" t="s">
-        <v>620</v>
-      </c>
-      <c r="R1" s="47" t="s">
-        <v>610</v>
       </c>
       <c r="S1" s="47" t="s">
         <v>595</v>
@@ -26772,7 +26769,7 @@
         <v>601</v>
       </c>
       <c r="V1" s="47" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="35" customFormat="1">
@@ -26783,7 +26780,7 @@
         <v>7001</v>
       </c>
       <c r="D2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E2">
         <v>2021</v>
@@ -26836,7 +26833,7 @@
         <v>7002</v>
       </c>
       <c r="D3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E3">
         <v>2021</v>
@@ -26880,7 +26877,7 @@
         <v>7003</v>
       </c>
       <c r="D4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E4">
         <v>2021</v>
@@ -26924,7 +26921,7 @@
         <v>7004</v>
       </c>
       <c r="D5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E5">
         <v>2021</v>
@@ -26973,7 +26970,7 @@
         <v>7005</v>
       </c>
       <c r="D6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E6">
         <v>2021</v>
@@ -27022,7 +27019,7 @@
         <v>7006</v>
       </c>
       <c r="D7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E7">
         <v>2021</v>
@@ -27071,7 +27068,7 @@
         <v>7007</v>
       </c>
       <c r="D8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E8">
         <v>2021</v>
@@ -27115,7 +27112,7 @@
         <v>7008</v>
       </c>
       <c r="D9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E9">
         <v>2021</v>
@@ -27159,7 +27156,7 @@
         <v>7009</v>
       </c>
       <c r="D10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E10">
         <v>2021</v>
@@ -27203,7 +27200,7 @@
         <v>7010</v>
       </c>
       <c r="D11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E11">
         <v>2021</v>
@@ -27247,7 +27244,7 @@
         <v>7011</v>
       </c>
       <c r="D12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E12">
         <v>2021</v>
@@ -27291,7 +27288,7 @@
         <v>7012</v>
       </c>
       <c r="D13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E13">
         <v>2021</v>
@@ -27335,7 +27332,7 @@
         <v>7013</v>
       </c>
       <c r="D14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E14">
         <v>2021</v>
@@ -27379,7 +27376,7 @@
         <v>7014</v>
       </c>
       <c r="D15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E15">
         <v>2021</v>
@@ -27423,7 +27420,7 @@
         <v>7015</v>
       </c>
       <c r="D16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E16">
         <v>2021</v>
@@ -27467,7 +27464,7 @@
         <v>7016</v>
       </c>
       <c r="D17" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E17">
         <v>2021</v>
@@ -27511,7 +27508,7 @@
         <v>7017</v>
       </c>
       <c r="D18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E18">
         <v>2021</v>
@@ -27555,7 +27552,7 @@
         <v>7018</v>
       </c>
       <c r="D19" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E19">
         <v>2021</v>
@@ -27599,7 +27596,7 @@
         <v>7019</v>
       </c>
       <c r="D20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E20">
         <v>2021</v>
@@ -27643,7 +27640,7 @@
         <v>7020</v>
       </c>
       <c r="D21" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E21">
         <v>2021</v>
@@ -27687,7 +27684,7 @@
         <v>7021</v>
       </c>
       <c r="D22" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E22">
         <v>2021</v>
@@ -27731,7 +27728,7 @@
         <v>7022</v>
       </c>
       <c r="D23" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E23">
         <v>2021</v>
@@ -27775,7 +27772,7 @@
         <v>7023</v>
       </c>
       <c r="D24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E24">
         <v>2021</v>
@@ -27819,7 +27816,7 @@
         <v>7024</v>
       </c>
       <c r="D25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E25">
         <v>2021</v>
@@ -27863,7 +27860,7 @@
         <v>7025</v>
       </c>
       <c r="D26" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E26">
         <v>2021</v>
@@ -27907,7 +27904,7 @@
         <v>7026</v>
       </c>
       <c r="D27" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E27">
         <v>2021</v>
@@ -27951,7 +27948,7 @@
         <v>7027</v>
       </c>
       <c r="D28" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E28">
         <v>2021</v>
@@ -27995,7 +27992,7 @@
         <v>7028</v>
       </c>
       <c r="D29" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E29">
         <v>2021</v>
@@ -28039,7 +28036,7 @@
         <v>7029</v>
       </c>
       <c r="D30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E30">
         <v>2021</v>
@@ -28083,7 +28080,7 @@
         <v>7030</v>
       </c>
       <c r="D31" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E31">
         <v>2021</v>
@@ -28127,7 +28124,7 @@
         <v>7031</v>
       </c>
       <c r="D32" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E32">
         <v>2021</v>
@@ -28171,7 +28168,7 @@
         <v>7032</v>
       </c>
       <c r="D33" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E33">
         <v>2021</v>
@@ -28215,7 +28212,7 @@
         <v>7033</v>
       </c>
       <c r="D34" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E34">
         <v>2021</v>
@@ -28259,7 +28256,7 @@
         <v>7034</v>
       </c>
       <c r="D35" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E35">
         <v>2021</v>
@@ -28303,7 +28300,7 @@
         <v>7035</v>
       </c>
       <c r="D36" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E36">
         <v>2021</v>
@@ -28347,7 +28344,7 @@
         <v>7036</v>
       </c>
       <c r="D37" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E37">
         <v>2021</v>
@@ -28391,7 +28388,7 @@
         <v>7037</v>
       </c>
       <c r="D38" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E38">
         <v>2021</v>
@@ -28435,7 +28432,7 @@
         <v>7038</v>
       </c>
       <c r="D39" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E39">
         <v>2021</v>
@@ -28479,7 +28476,7 @@
         <v>7039</v>
       </c>
       <c r="D40" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E40">
         <v>2021</v>
@@ -28523,7 +28520,7 @@
         <v>7040</v>
       </c>
       <c r="D41" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E41">
         <v>2021</v>
@@ -28567,7 +28564,7 @@
         <v>7041</v>
       </c>
       <c r="D42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E42">
         <v>2021</v>
@@ -28611,7 +28608,7 @@
         <v>7042</v>
       </c>
       <c r="D43" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E43">
         <v>2021</v>
@@ -28655,7 +28652,7 @@
         <v>7043</v>
       </c>
       <c r="D44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E44">
         <v>2021</v>
@@ -28699,7 +28696,7 @@
         <v>7044</v>
       </c>
       <c r="D45" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E45">
         <v>2021</v>
@@ -28743,7 +28740,7 @@
         <v>7045</v>
       </c>
       <c r="D46" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E46">
         <v>2021</v>
@@ -28787,7 +28784,7 @@
         <v>7046</v>
       </c>
       <c r="D47" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E47">
         <v>2021</v>
@@ -28831,7 +28828,7 @@
         <v>7047</v>
       </c>
       <c r="D48" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E48">
         <v>2021</v>
@@ -28875,7 +28872,7 @@
         <v>7048</v>
       </c>
       <c r="D49" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E49">
         <v>2021</v>
@@ -28919,7 +28916,7 @@
         <v>7049</v>
       </c>
       <c r="D50" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E50">
         <v>2021</v>
@@ -28963,7 +28960,7 @@
         <v>7050</v>
       </c>
       <c r="D51" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E51">
         <v>2021</v>
@@ -29007,7 +29004,7 @@
         <v>7051</v>
       </c>
       <c r="D52" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E52">
         <v>2021</v>
@@ -29051,7 +29048,7 @@
         <v>7052</v>
       </c>
       <c r="D53" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E53">
         <v>2021</v>
@@ -29095,7 +29092,7 @@
         <v>7053</v>
       </c>
       <c r="D54" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E54">
         <v>2021</v>
@@ -29139,7 +29136,7 @@
         <v>7054</v>
       </c>
       <c r="D55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E55">
         <v>2021</v>
@@ -29183,7 +29180,7 @@
         <v>7055</v>
       </c>
       <c r="D56" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E56">
         <v>2021</v>
@@ -29227,7 +29224,7 @@
         <v>7056</v>
       </c>
       <c r="D57" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E57">
         <v>2021</v>
@@ -29271,7 +29268,7 @@
         <v>7057</v>
       </c>
       <c r="D58" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E58">
         <v>2021</v>
@@ -29315,7 +29312,7 @@
         <v>7058</v>
       </c>
       <c r="D59" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E59">
         <v>2021</v>
@@ -29359,7 +29356,7 @@
         <v>7059</v>
       </c>
       <c r="D60" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E60">
         <v>2021</v>
@@ -29403,7 +29400,7 @@
         <v>7060</v>
       </c>
       <c r="D61" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E61">
         <v>2021</v>
@@ -29447,7 +29444,7 @@
         <v>7061</v>
       </c>
       <c r="D62" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E62">
         <v>2021</v>
@@ -29491,7 +29488,7 @@
         <v>7062</v>
       </c>
       <c r="D63" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E63">
         <v>2021</v>
@@ -29535,7 +29532,7 @@
         <v>7063</v>
       </c>
       <c r="D64" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E64">
         <v>2021</v>
@@ -29579,7 +29576,7 @@
         <v>7064</v>
       </c>
       <c r="D65" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E65">
         <v>2021</v>
@@ -29623,7 +29620,7 @@
         <v>7065</v>
       </c>
       <c r="D66" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E66">
         <v>2021</v>
@@ -29667,7 +29664,7 @@
         <v>7066</v>
       </c>
       <c r="D67" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E67">
         <v>2021</v>
@@ -29711,7 +29708,7 @@
         <v>7067</v>
       </c>
       <c r="D68" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E68">
         <v>2021</v>
@@ -29755,7 +29752,7 @@
         <v>7068</v>
       </c>
       <c r="D69" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E69">
         <v>2021</v>
@@ -29799,7 +29796,7 @@
         <v>7069</v>
       </c>
       <c r="D70" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E70">
         <v>2021</v>
@@ -29843,7 +29840,7 @@
         <v>7070</v>
       </c>
       <c r="D71" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E71">
         <v>2021</v>
@@ -29887,7 +29884,7 @@
         <v>7071</v>
       </c>
       <c r="D72" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E72">
         <v>2021</v>
@@ -29931,7 +29928,7 @@
         <v>7072</v>
       </c>
       <c r="D73" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E73">
         <v>2021</v>
@@ -29975,7 +29972,7 @@
         <v>7073</v>
       </c>
       <c r="D74" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E74">
         <v>2021</v>
@@ -30019,7 +30016,7 @@
         <v>7074</v>
       </c>
       <c r="D75" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E75">
         <v>2021</v>
@@ -30063,7 +30060,7 @@
         <v>7075</v>
       </c>
       <c r="D76" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E76">
         <v>2021</v>
@@ -30107,7 +30104,7 @@
         <v>7076</v>
       </c>
       <c r="D77" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E77">
         <v>2021</v>
@@ -30151,7 +30148,7 @@
         <v>7077</v>
       </c>
       <c r="D78" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E78">
         <v>2021</v>
@@ -30195,7 +30192,7 @@
         <v>7078</v>
       </c>
       <c r="D79" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E79">
         <v>2021</v>
@@ -30239,7 +30236,7 @@
         <v>7079</v>
       </c>
       <c r="D80" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E80">
         <v>2021</v>
@@ -30283,7 +30280,7 @@
         <v>7080</v>
       </c>
       <c r="D81" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E81">
         <v>2021</v>
@@ -30327,7 +30324,7 @@
         <v>7081</v>
       </c>
       <c r="D82" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E82">
         <v>2021</v>
@@ -30371,7 +30368,7 @@
         <v>7082</v>
       </c>
       <c r="D83" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E83">
         <v>2021</v>
@@ -30415,7 +30412,7 @@
         <v>7083</v>
       </c>
       <c r="D84" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E84">
         <v>2021</v>
@@ -30459,7 +30456,7 @@
         <v>7084</v>
       </c>
       <c r="D85" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E85">
         <v>2021</v>
@@ -30503,7 +30500,7 @@
         <v>7085</v>
       </c>
       <c r="D86" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E86">
         <v>2021</v>
@@ -30547,7 +30544,7 @@
         <v>7086</v>
       </c>
       <c r="D87" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E87">
         <v>2021</v>
@@ -30591,7 +30588,7 @@
         <v>7087</v>
       </c>
       <c r="D88" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E88">
         <v>2021</v>
@@ -30635,7 +30632,7 @@
         <v>7088</v>
       </c>
       <c r="D89" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E89">
         <v>2021</v>
@@ -30679,7 +30676,7 @@
         <v>7089</v>
       </c>
       <c r="D90" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E90">
         <v>2021</v>
@@ -30723,7 +30720,7 @@
         <v>7090</v>
       </c>
       <c r="D91" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E91">
         <v>2021</v>
@@ -30767,7 +30764,7 @@
         <v>7091</v>
       </c>
       <c r="D92" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E92">
         <v>2021</v>
@@ -30811,7 +30808,7 @@
         <v>7092</v>
       </c>
       <c r="D93" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E93">
         <v>2021</v>
@@ -30855,7 +30852,7 @@
         <v>7093</v>
       </c>
       <c r="D94" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E94">
         <v>2021</v>
@@ -30899,7 +30896,7 @@
         <v>7094</v>
       </c>
       <c r="D95" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E95">
         <v>2021</v>
@@ -30943,7 +30940,7 @@
         <v>7095</v>
       </c>
       <c r="D96" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E96">
         <v>2021</v>
@@ -30987,7 +30984,7 @@
         <v>7096</v>
       </c>
       <c r="D97" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E97">
         <v>2021</v>
@@ -31031,7 +31028,7 @@
         <v>7097</v>
       </c>
       <c r="D98" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E98">
         <v>2021</v>
@@ -31075,7 +31072,7 @@
         <v>7098</v>
       </c>
       <c r="D99" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E99">
         <v>2021</v>
@@ -31119,7 +31116,7 @@
         <v>7099</v>
       </c>
       <c r="D100" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E100">
         <v>2021</v>
@@ -31163,7 +31160,7 @@
         <v>7100</v>
       </c>
       <c r="D101" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E101">
         <v>2021</v>
@@ -31207,7 +31204,7 @@
         <v>7101</v>
       </c>
       <c r="D102" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E102">
         <v>2021</v>
@@ -31251,7 +31248,7 @@
         <v>7102</v>
       </c>
       <c r="D103" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E103">
         <v>2021</v>
@@ -31295,7 +31292,7 @@
         <v>7103</v>
       </c>
       <c r="D104" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E104">
         <v>2021</v>
@@ -31339,7 +31336,7 @@
         <v>7104</v>
       </c>
       <c r="D105" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E105">
         <v>2021</v>
@@ -31383,7 +31380,7 @@
         <v>7105</v>
       </c>
       <c r="D106" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E106">
         <v>2021</v>
@@ -31427,7 +31424,7 @@
         <v>7106</v>
       </c>
       <c r="D107" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E107">
         <v>2021</v>
@@ -31471,7 +31468,7 @@
         <v>7107</v>
       </c>
       <c r="D108" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E108">
         <v>2021</v>
@@ -31515,7 +31512,7 @@
         <v>7108</v>
       </c>
       <c r="D109" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E109">
         <v>2021</v>
@@ -31559,7 +31556,7 @@
         <v>7109</v>
       </c>
       <c r="D110" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E110">
         <v>2021</v>
@@ -31603,7 +31600,7 @@
         <v>7110</v>
       </c>
       <c r="D111" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E111">
         <v>2021</v>
@@ -31647,7 +31644,7 @@
         <v>7111</v>
       </c>
       <c r="D112" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E112">
         <v>2021</v>
@@ -31691,7 +31688,7 @@
         <v>7112</v>
       </c>
       <c r="D113" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E113">
         <v>2021</v>
@@ -31735,7 +31732,7 @@
         <v>7113</v>
       </c>
       <c r="D114" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E114">
         <v>2021</v>
@@ -31779,7 +31776,7 @@
         <v>7114</v>
       </c>
       <c r="D115" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E115">
         <v>2021</v>
@@ -31823,7 +31820,7 @@
         <v>7115</v>
       </c>
       <c r="D116" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E116">
         <v>2021</v>
@@ -31867,7 +31864,7 @@
         <v>7116</v>
       </c>
       <c r="D117" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E117">
         <v>2021</v>
@@ -31911,7 +31908,7 @@
         <v>7117</v>
       </c>
       <c r="D118" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E118">
         <v>2021</v>
@@ -31955,7 +31952,7 @@
         <v>7118</v>
       </c>
       <c r="D119" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E119">
         <v>2021</v>
@@ -31999,7 +31996,7 @@
         <v>7119</v>
       </c>
       <c r="D120" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E120">
         <v>2021</v>
@@ -32043,7 +32040,7 @@
         <v>7120</v>
       </c>
       <c r="D121" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E121">
         <v>2021</v>
@@ -32087,7 +32084,7 @@
         <v>7121</v>
       </c>
       <c r="D122" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E122">
         <v>2021</v>
@@ -32131,7 +32128,7 @@
         <v>7122</v>
       </c>
       <c r="D123" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E123">
         <v>2021</v>
@@ -32175,7 +32172,7 @@
         <v>7123</v>
       </c>
       <c r="D124" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E124">
         <v>2021</v>
@@ -32219,7 +32216,7 @@
         <v>7124</v>
       </c>
       <c r="D125" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E125">
         <v>2021</v>
@@ -32263,7 +32260,7 @@
         <v>7125</v>
       </c>
       <c r="D126" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E126">
         <v>2021</v>
@@ -32307,7 +32304,7 @@
         <v>7126</v>
       </c>
       <c r="D127" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E127">
         <v>2021</v>
@@ -32351,7 +32348,7 @@
         <v>7127</v>
       </c>
       <c r="D128" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E128">
         <v>2021</v>
@@ -32395,7 +32392,7 @@
         <v>7128</v>
       </c>
       <c r="D129" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E129">
         <v>2021</v>
@@ -32439,7 +32436,7 @@
         <v>7129</v>
       </c>
       <c r="D130" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E130">
         <v>2021</v>
@@ -32483,7 +32480,7 @@
         <v>7130</v>
       </c>
       <c r="D131" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E131">
         <v>2021</v>
@@ -32527,7 +32524,7 @@
         <v>7131</v>
       </c>
       <c r="D132" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E132">
         <v>2021</v>
@@ -32571,7 +32568,7 @@
         <v>7132</v>
       </c>
       <c r="D133" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E133">
         <v>2021</v>
@@ -32615,7 +32612,7 @@
         <v>7133</v>
       </c>
       <c r="D134" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E134">
         <v>2021</v>
@@ -32659,7 +32656,7 @@
         <v>7134</v>
       </c>
       <c r="D135" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E135">
         <v>2021</v>
@@ -32703,7 +32700,7 @@
         <v>7135</v>
       </c>
       <c r="D136" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E136">
         <v>2021</v>
@@ -32747,7 +32744,7 @@
         <v>7136</v>
       </c>
       <c r="D137" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E137">
         <v>2021</v>
@@ -32791,7 +32788,7 @@
         <v>7137</v>
       </c>
       <c r="D138" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E138">
         <v>2021</v>
@@ -32835,7 +32832,7 @@
         <v>7138</v>
       </c>
       <c r="D139" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E139">
         <v>2021</v>
@@ -32879,7 +32876,7 @@
         <v>7139</v>
       </c>
       <c r="D140" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E140">
         <v>2021</v>
@@ -32923,7 +32920,7 @@
         <v>7140</v>
       </c>
       <c r="D141" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E141">
         <v>2021</v>
@@ -32967,7 +32964,7 @@
         <v>7141</v>
       </c>
       <c r="D142" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E142">
         <v>2021</v>
@@ -33011,7 +33008,7 @@
         <v>7142</v>
       </c>
       <c r="D143" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E143">
         <v>2021</v>
@@ -33055,7 +33052,7 @@
         <v>7143</v>
       </c>
       <c r="D144" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E144">
         <v>2021</v>
@@ -33099,7 +33096,7 @@
         <v>7144</v>
       </c>
       <c r="D145" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E145">
         <v>2021</v>
@@ -33143,7 +33140,7 @@
         <v>7145</v>
       </c>
       <c r="D146" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E146">
         <v>2021</v>
@@ -33187,7 +33184,7 @@
         <v>7146</v>
       </c>
       <c r="D147" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E147">
         <v>2021</v>
@@ -33231,7 +33228,7 @@
         <v>7147</v>
       </c>
       <c r="D148" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E148">
         <v>2021</v>
@@ -33275,7 +33272,7 @@
         <v>7148</v>
       </c>
       <c r="D149" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E149">
         <v>2021</v>
@@ -33319,7 +33316,7 @@
         <v>7149</v>
       </c>
       <c r="D150" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E150">
         <v>2021</v>
@@ -33363,7 +33360,7 @@
         <v>7150</v>
       </c>
       <c r="D151" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E151">
         <v>2021</v>
@@ -33407,7 +33404,7 @@
         <v>7151</v>
       </c>
       <c r="D152" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E152">
         <v>2021</v>
@@ -33451,7 +33448,7 @@
         <v>7152</v>
       </c>
       <c r="D153" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E153">
         <v>2021</v>
@@ -33495,7 +33492,7 @@
         <v>7153</v>
       </c>
       <c r="D154" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E154">
         <v>2021</v>
@@ -33539,7 +33536,7 @@
         <v>7154</v>
       </c>
       <c r="D155" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E155">
         <v>2021</v>
@@ -33583,7 +33580,7 @@
         <v>7155</v>
       </c>
       <c r="D156" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E156">
         <v>2021</v>
@@ -33627,7 +33624,7 @@
         <v>7156</v>
       </c>
       <c r="D157" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E157">
         <v>2021</v>
@@ -33671,7 +33668,7 @@
         <v>7157</v>
       </c>
       <c r="D158" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E158">
         <v>2021</v>
@@ -33715,7 +33712,7 @@
         <v>7158</v>
       </c>
       <c r="D159" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E159">
         <v>2021</v>
@@ -33759,7 +33756,7 @@
         <v>7159</v>
       </c>
       <c r="D160" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E160">
         <v>2021</v>
@@ -33803,7 +33800,7 @@
         <v>7160</v>
       </c>
       <c r="D161" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E161">
         <v>2021</v>
@@ -33847,7 +33844,7 @@
         <v>7161</v>
       </c>
       <c r="D162" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E162">
         <v>2021</v>
@@ -33891,7 +33888,7 @@
         <v>7162</v>
       </c>
       <c r="D163" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E163">
         <v>2021</v>
@@ -33935,7 +33932,7 @@
         <v>7163</v>
       </c>
       <c r="D164" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E164">
         <v>2021</v>
@@ -33979,7 +33976,7 @@
         <v>7164</v>
       </c>
       <c r="D165" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E165">
         <v>2021</v>
@@ -34023,7 +34020,7 @@
         <v>7165</v>
       </c>
       <c r="D166" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E166">
         <v>2021</v>
@@ -34067,7 +34064,7 @@
         <v>7166</v>
       </c>
       <c r="D167" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E167">
         <v>2021</v>
@@ -34111,7 +34108,7 @@
         <v>7167</v>
       </c>
       <c r="D168" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E168">
         <v>2021</v>
@@ -34155,7 +34152,7 @@
         <v>7168</v>
       </c>
       <c r="D169" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E169">
         <v>2021</v>
@@ -34199,7 +34196,7 @@
         <v>7169</v>
       </c>
       <c r="D170" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E170">
         <v>2021</v>
@@ -34243,7 +34240,7 @@
         <v>7170</v>
       </c>
       <c r="D171" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E171">
         <v>2021</v>
@@ -34287,7 +34284,7 @@
         <v>7171</v>
       </c>
       <c r="D172" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E172">
         <v>2021</v>
@@ -34331,7 +34328,7 @@
         <v>7172</v>
       </c>
       <c r="D173" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E173">
         <v>2021</v>
@@ -34375,7 +34372,7 @@
         <v>7173</v>
       </c>
       <c r="D174" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E174">
         <v>2021</v>
@@ -34419,7 +34416,7 @@
         <v>7174</v>
       </c>
       <c r="D175" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E175">
         <v>2021</v>
@@ -34463,7 +34460,7 @@
         <v>7175</v>
       </c>
       <c r="D176" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E176">
         <v>2021</v>
@@ -34507,7 +34504,7 @@
         <v>7176</v>
       </c>
       <c r="D177" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E177">
         <v>2021</v>
@@ -34551,7 +34548,7 @@
         <v>7177</v>
       </c>
       <c r="D178" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E178">
         <v>2021</v>
@@ -34595,7 +34592,7 @@
         <v>7178</v>
       </c>
       <c r="D179" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E179">
         <v>2021</v>
@@ -34639,7 +34636,7 @@
         <v>7179</v>
       </c>
       <c r="D180" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E180">
         <v>2021</v>
@@ -34683,7 +34680,7 @@
         <v>7180</v>
       </c>
       <c r="D181" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E181">
         <v>2021</v>
@@ -34727,7 +34724,7 @@
         <v>7181</v>
       </c>
       <c r="D182" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E182">
         <v>2021</v>
@@ -34771,7 +34768,7 @@
         <v>7182</v>
       </c>
       <c r="D183" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E183">
         <v>2021</v>
@@ -34815,7 +34812,7 @@
         <v>7183</v>
       </c>
       <c r="D184" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E184">
         <v>2021</v>
@@ -34859,7 +34856,7 @@
         <v>7184</v>
       </c>
       <c r="D185" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E185">
         <v>2021</v>
@@ -34903,7 +34900,7 @@
         <v>7185</v>
       </c>
       <c r="D186" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E186">
         <v>2021</v>
@@ -34947,7 +34944,7 @@
         <v>7186</v>
       </c>
       <c r="D187" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E187">
         <v>2021</v>
@@ -34991,7 +34988,7 @@
         <v>7187</v>
       </c>
       <c r="D188" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E188">
         <v>2021</v>
@@ -35035,7 +35032,7 @@
         <v>7188</v>
       </c>
       <c r="D189" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E189">
         <v>2021</v>
@@ -35079,7 +35076,7 @@
         <v>7189</v>
       </c>
       <c r="D190" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E190">
         <v>2021</v>
@@ -35123,7 +35120,7 @@
         <v>7190</v>
       </c>
       <c r="D191" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E191">
         <v>2021</v>
@@ -35167,7 +35164,7 @@
         <v>7191</v>
       </c>
       <c r="D192" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E192">
         <v>2021</v>
@@ -35211,7 +35208,7 @@
         <v>7192</v>
       </c>
       <c r="D193" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E193">
         <v>2021</v>
@@ -35255,7 +35252,7 @@
         <v>7193</v>
       </c>
       <c r="D194" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E194">
         <v>2021</v>
@@ -35299,7 +35296,7 @@
         <v>7194</v>
       </c>
       <c r="D195" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E195">
         <v>2021</v>
@@ -35343,7 +35340,7 @@
         <v>7195</v>
       </c>
       <c r="D196" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E196">
         <v>2021</v>
@@ -35387,7 +35384,7 @@
         <v>7196</v>
       </c>
       <c r="D197" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E197">
         <v>2021</v>
@@ -35431,7 +35428,7 @@
         <v>7197</v>
       </c>
       <c r="D198" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E198">
         <v>2021</v>
@@ -35475,7 +35472,7 @@
         <v>7198</v>
       </c>
       <c r="D199" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E199">
         <v>2021</v>
@@ -35519,7 +35516,7 @@
         <v>7199</v>
       </c>
       <c r="D200" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E200">
         <v>2021</v>
@@ -35563,7 +35560,7 @@
         <v>7200</v>
       </c>
       <c r="D201" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E201">
         <v>2021</v>
@@ -35607,7 +35604,7 @@
         <v>7201</v>
       </c>
       <c r="D202" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E202">
         <v>2021</v>
@@ -35651,7 +35648,7 @@
         <v>7202</v>
       </c>
       <c r="D203" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E203">
         <v>2021</v>
@@ -35695,7 +35692,7 @@
         <v>7203</v>
       </c>
       <c r="D204" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E204">
         <v>2021</v>
@@ -35739,7 +35736,7 @@
         <v>7204</v>
       </c>
       <c r="D205" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E205">
         <v>2021</v>
@@ -35783,7 +35780,7 @@
         <v>7205</v>
       </c>
       <c r="D206" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E206">
         <v>2021</v>
@@ -35827,7 +35824,7 @@
         <v>7206</v>
       </c>
       <c r="D207" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E207">
         <v>2021</v>
@@ -35871,7 +35868,7 @@
         <v>7207</v>
       </c>
       <c r="D208" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E208">
         <v>2021</v>
@@ -35915,7 +35912,7 @@
         <v>7208</v>
       </c>
       <c r="D209" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E209">
         <v>2021</v>
@@ -35959,7 +35956,7 @@
         <v>7209</v>
       </c>
       <c r="D210" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E210">
         <v>2021</v>
@@ -36003,7 +36000,7 @@
         <v>7210</v>
       </c>
       <c r="D211" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E211">
         <v>2021</v>
@@ -36047,7 +36044,7 @@
         <v>7211</v>
       </c>
       <c r="D212" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E212">
         <v>2021</v>
@@ -36091,7 +36088,7 @@
         <v>7212</v>
       </c>
       <c r="D213" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E213">
         <v>2021</v>
@@ -36135,7 +36132,7 @@
         <v>7213</v>
       </c>
       <c r="D214" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E214">
         <v>2021</v>
@@ -36179,7 +36176,7 @@
         <v>7214</v>
       </c>
       <c r="D215" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E215">
         <v>2021</v>
@@ -36223,7 +36220,7 @@
         <v>7215</v>
       </c>
       <c r="D216" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E216">
         <v>2021</v>
@@ -36267,7 +36264,7 @@
         <v>7216</v>
       </c>
       <c r="D217" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E217">
         <v>2021</v>
@@ -36311,7 +36308,7 @@
         <v>7217</v>
       </c>
       <c r="D218" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E218">
         <v>2021</v>
@@ -36355,7 +36352,7 @@
         <v>7218</v>
       </c>
       <c r="D219" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E219">
         <v>2021</v>
@@ -36399,7 +36396,7 @@
         <v>7219</v>
       </c>
       <c r="D220" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E220">
         <v>2021</v>
@@ -36443,7 +36440,7 @@
         <v>7220</v>
       </c>
       <c r="D221" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E221">
         <v>2021</v>
@@ -36487,7 +36484,7 @@
         <v>7221</v>
       </c>
       <c r="D222" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E222">
         <v>2021</v>
@@ -36531,7 +36528,7 @@
         <v>7222</v>
       </c>
       <c r="D223" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E223">
         <v>2021</v>
@@ -36575,7 +36572,7 @@
         <v>7223</v>
       </c>
       <c r="D224" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E224">
         <v>2021</v>
@@ -36619,7 +36616,7 @@
         <v>7224</v>
       </c>
       <c r="D225" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E225">
         <v>2021</v>
@@ -36663,7 +36660,7 @@
         <v>7225</v>
       </c>
       <c r="D226" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E226">
         <v>2021</v>
@@ -36707,7 +36704,7 @@
         <v>7226</v>
       </c>
       <c r="D227" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E227">
         <v>2021</v>
@@ -36751,7 +36748,7 @@
         <v>7227</v>
       </c>
       <c r="D228" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E228">
         <v>2021</v>
@@ -36795,7 +36792,7 @@
         <v>7228</v>
       </c>
       <c r="D229" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E229">
         <v>2021</v>
@@ -36839,7 +36836,7 @@
         <v>7229</v>
       </c>
       <c r="D230" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E230">
         <v>2021</v>
@@ -36883,7 +36880,7 @@
         <v>7230</v>
       </c>
       <c r="D231" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E231">
         <v>2021</v>
@@ -36927,7 +36924,7 @@
         <v>7231</v>
       </c>
       <c r="D232" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E232">
         <v>2021</v>
@@ -36971,7 +36968,7 @@
         <v>7232</v>
       </c>
       <c r="D233" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E233">
         <v>2021</v>
@@ -37015,7 +37012,7 @@
         <v>7233</v>
       </c>
       <c r="D234" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E234">
         <v>2021</v>
@@ -37059,7 +37056,7 @@
         <v>7234</v>
       </c>
       <c r="D235" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E235">
         <v>2021</v>
@@ -37103,7 +37100,7 @@
         <v>7235</v>
       </c>
       <c r="D236" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E236">
         <v>2021</v>
@@ -37147,7 +37144,7 @@
         <v>7236</v>
       </c>
       <c r="D237" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E237">
         <v>2021</v>
@@ -37191,7 +37188,7 @@
         <v>7237</v>
       </c>
       <c r="D238" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E238">
         <v>2021</v>
@@ -37235,7 +37232,7 @@
         <v>7238</v>
       </c>
       <c r="D239" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E239">
         <v>2021</v>
@@ -37279,7 +37276,7 @@
         <v>7239</v>
       </c>
       <c r="D240" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E240">
         <v>2021</v>
@@ -37323,7 +37320,7 @@
         <v>7240</v>
       </c>
       <c r="D241" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E241">
         <v>2021</v>
@@ -37367,7 +37364,7 @@
         <v>7241</v>
       </c>
       <c r="D242" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E242">
         <v>2021</v>
@@ -37411,7 +37408,7 @@
         <v>7242</v>
       </c>
       <c r="D243" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E243">
         <v>2021</v>
@@ -37455,7 +37452,7 @@
         <v>7243</v>
       </c>
       <c r="D244" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E244">
         <v>2021</v>
@@ -37499,7 +37496,7 @@
         <v>7244</v>
       </c>
       <c r="D245" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E245">
         <v>2021</v>
@@ -37543,7 +37540,7 @@
         <v>7245</v>
       </c>
       <c r="D246" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E246">
         <v>2021</v>
@@ -37587,7 +37584,7 @@
         <v>7246</v>
       </c>
       <c r="D247" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E247">
         <v>2021</v>
@@ -37631,7 +37628,7 @@
         <v>7247</v>
       </c>
       <c r="D248" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E248">
         <v>2021</v>
@@ -37675,7 +37672,7 @@
         <v>7248</v>
       </c>
       <c r="D249" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E249">
         <v>2021</v>
@@ -37719,7 +37716,7 @@
         <v>7249</v>
       </c>
       <c r="D250" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E250">
         <v>2021</v>
@@ -37763,7 +37760,7 @@
         <v>7250</v>
       </c>
       <c r="D251" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E251">
         <v>2021</v>
@@ -37807,7 +37804,7 @@
         <v>7251</v>
       </c>
       <c r="D252" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E252">
         <v>2021</v>
@@ -37851,7 +37848,7 @@
         <v>7252</v>
       </c>
       <c r="D253" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E253">
         <v>2021</v>
@@ -37895,7 +37892,7 @@
         <v>7253</v>
       </c>
       <c r="D254" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E254">
         <v>2021</v>
@@ -37939,7 +37936,7 @@
         <v>7254</v>
       </c>
       <c r="D255" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E255">
         <v>2021</v>
@@ -37983,7 +37980,7 @@
         <v>7255</v>
       </c>
       <c r="D256" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E256">
         <v>2021</v>
@@ -38027,7 +38024,7 @@
         <v>7256</v>
       </c>
       <c r="D257" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E257">
         <v>2021</v>
@@ -38071,7 +38068,7 @@
         <v>7257</v>
       </c>
       <c r="D258" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E258">
         <v>2021</v>
@@ -38115,7 +38112,7 @@
         <v>7258</v>
       </c>
       <c r="D259" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E259">
         <v>2021</v>
@@ -38159,7 +38156,7 @@
         <v>7259</v>
       </c>
       <c r="D260" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E260">
         <v>2021</v>
@@ -38203,7 +38200,7 @@
         <v>7260</v>
       </c>
       <c r="D261" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E261">
         <v>2021</v>
@@ -38247,7 +38244,7 @@
         <v>7261</v>
       </c>
       <c r="D262" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E262">
         <v>2021</v>
@@ -38291,7 +38288,7 @@
         <v>7262</v>
       </c>
       <c r="D263" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E263">
         <v>2021</v>
@@ -38335,7 +38332,7 @@
         <v>7263</v>
       </c>
       <c r="D264" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E264">
         <v>2021</v>
@@ -38379,7 +38376,7 @@
         <v>7264</v>
       </c>
       <c r="D265" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E265">
         <v>2021</v>
@@ -38423,7 +38420,7 @@
         <v>7265</v>
       </c>
       <c r="D266" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E266">
         <v>2021</v>
@@ -38467,7 +38464,7 @@
         <v>7266</v>
       </c>
       <c r="D267" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E267">
         <v>2021</v>
@@ -38511,7 +38508,7 @@
         <v>7267</v>
       </c>
       <c r="D268" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E268">
         <v>2021</v>
@@ -38555,7 +38552,7 @@
         <v>7268</v>
       </c>
       <c r="D269" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E269">
         <v>2021</v>
@@ -38599,7 +38596,7 @@
         <v>7269</v>
       </c>
       <c r="D270" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E270">
         <v>2021</v>
@@ -38643,7 +38640,7 @@
         <v>7270</v>
       </c>
       <c r="D271" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E271">
         <v>2021</v>
@@ -38687,7 +38684,7 @@
         <v>7271</v>
       </c>
       <c r="D272" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E272">
         <v>2021</v>
@@ -38731,7 +38728,7 @@
         <v>7272</v>
       </c>
       <c r="D273" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E273">
         <v>2021</v>
@@ -38775,7 +38772,7 @@
         <v>7273</v>
       </c>
       <c r="D274" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E274">
         <v>2021</v>
@@ -38819,7 +38816,7 @@
         <v>7274</v>
       </c>
       <c r="D275" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E275">
         <v>2021</v>
@@ -38863,7 +38860,7 @@
         <v>7275</v>
       </c>
       <c r="D276" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E276">
         <v>2021</v>
@@ -38907,7 +38904,7 @@
         <v>7276</v>
       </c>
       <c r="D277" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E277">
         <v>2021</v>
@@ -38951,7 +38948,7 @@
         <v>7277</v>
       </c>
       <c r="D278" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E278">
         <v>2021</v>
@@ -38995,7 +38992,7 @@
         <v>7278</v>
       </c>
       <c r="D279" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E279">
         <v>2021</v>
@@ -39039,7 +39036,7 @@
         <v>7279</v>
       </c>
       <c r="D280" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E280">
         <v>2021</v>
@@ -39083,7 +39080,7 @@
         <v>7280</v>
       </c>
       <c r="D281" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E281">
         <v>2021</v>
@@ -39127,7 +39124,7 @@
         <v>7281</v>
       </c>
       <c r="D282" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E282">
         <v>2021</v>
@@ -39171,7 +39168,7 @@
         <v>7282</v>
       </c>
       <c r="D283" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E283">
         <v>2021</v>
@@ -39215,7 +39212,7 @@
         <v>7283</v>
       </c>
       <c r="D284" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E284">
         <v>2021</v>
@@ -39259,7 +39256,7 @@
         <v>7284</v>
       </c>
       <c r="D285" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E285">
         <v>2021</v>
@@ -39303,7 +39300,7 @@
         <v>7285</v>
       </c>
       <c r="D286" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E286">
         <v>2021</v>
@@ -39347,7 +39344,7 @@
         <v>7286</v>
       </c>
       <c r="D287" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E287">
         <v>2021</v>
@@ -39391,7 +39388,7 @@
         <v>7287</v>
       </c>
       <c r="D288" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E288">
         <v>2021</v>
@@ -39435,7 +39432,7 @@
         <v>7288</v>
       </c>
       <c r="D289" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E289">
         <v>2021</v>
@@ -39479,7 +39476,7 @@
         <v>7289</v>
       </c>
       <c r="D290" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E290">
         <v>2021</v>
@@ -39523,7 +39520,7 @@
         <v>7290</v>
       </c>
       <c r="D291" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E291">
         <v>2021</v>
@@ -39567,7 +39564,7 @@
         <v>7291</v>
       </c>
       <c r="D292" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E292">
         <v>2021</v>
@@ -39611,7 +39608,7 @@
         <v>7292</v>
       </c>
       <c r="D293" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E293">
         <v>2021</v>
@@ -39655,7 +39652,7 @@
         <v>7293</v>
       </c>
       <c r="D294" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E294">
         <v>2021</v>
@@ -39699,7 +39696,7 @@
         <v>7294</v>
       </c>
       <c r="D295" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E295">
         <v>2021</v>
@@ -39743,7 +39740,7 @@
         <v>7295</v>
       </c>
       <c r="D296" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E296">
         <v>2021</v>
@@ -39787,7 +39784,7 @@
         <v>7296</v>
       </c>
       <c r="D297" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E297">
         <v>2021</v>
@@ -39831,7 +39828,7 @@
         <v>7297</v>
       </c>
       <c r="D298" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E298">
         <v>2021</v>
@@ -39875,7 +39872,7 @@
         <v>7298</v>
       </c>
       <c r="D299" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E299">
         <v>2021</v>
@@ -39919,7 +39916,7 @@
         <v>7299</v>
       </c>
       <c r="D300" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E300">
         <v>2021</v>
@@ -39963,7 +39960,7 @@
         <v>7300</v>
       </c>
       <c r="D301" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E301">
         <v>2021</v>
@@ -40007,7 +40004,7 @@
         <v>7301</v>
       </c>
       <c r="D302" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E302">
         <v>2021</v>
@@ -40051,7 +40048,7 @@
         <v>7302</v>
       </c>
       <c r="D303" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E303">
         <v>2021</v>
@@ -40095,7 +40092,7 @@
         <v>7303</v>
       </c>
       <c r="D304" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E304">
         <v>2021</v>
@@ -40139,7 +40136,7 @@
         <v>7304</v>
       </c>
       <c r="D305" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E305">
         <v>2021</v>
@@ -40183,7 +40180,7 @@
         <v>7305</v>
       </c>
       <c r="D306" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E306">
         <v>2021</v>
@@ -40227,7 +40224,7 @@
         <v>7306</v>
       </c>
       <c r="D307" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E307">
         <v>2021</v>
@@ -40271,7 +40268,7 @@
         <v>7307</v>
       </c>
       <c r="D308" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E308">
         <v>2021</v>
@@ -40315,7 +40312,7 @@
         <v>7308</v>
       </c>
       <c r="D309" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E309">
         <v>2021</v>
@@ -40359,7 +40356,7 @@
         <v>7309</v>
       </c>
       <c r="D310" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E310">
         <v>2021</v>
@@ -40403,7 +40400,7 @@
         <v>7310</v>
       </c>
       <c r="D311" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E311">
         <v>2021</v>
@@ -40447,7 +40444,7 @@
         <v>7311</v>
       </c>
       <c r="D312" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E312">
         <v>2021</v>
@@ -40491,7 +40488,7 @@
         <v>7312</v>
       </c>
       <c r="D313" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E313">
         <v>2021</v>
@@ -40535,7 +40532,7 @@
         <v>7313</v>
       </c>
       <c r="D314" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E314">
         <v>2021</v>
@@ -40579,7 +40576,7 @@
         <v>7314</v>
       </c>
       <c r="D315" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E315">
         <v>2021</v>
@@ -40623,7 +40620,7 @@
         <v>7315</v>
       </c>
       <c r="D316" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E316">
         <v>2021</v>
@@ -40667,7 +40664,7 @@
         <v>7316</v>
       </c>
       <c r="D317" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E317">
         <v>2021</v>
@@ -40711,7 +40708,7 @@
         <v>7317</v>
       </c>
       <c r="D318" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E318">
         <v>2021</v>
@@ -40755,7 +40752,7 @@
         <v>7318</v>
       </c>
       <c r="D319" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E319">
         <v>2021</v>
@@ -40799,7 +40796,7 @@
         <v>7319</v>
       </c>
       <c r="D320" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E320">
         <v>2021</v>
@@ -40843,7 +40840,7 @@
         <v>7320</v>
       </c>
       <c r="D321" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E321">
         <v>2021</v>
@@ -40887,7 +40884,7 @@
         <v>7321</v>
       </c>
       <c r="D322" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E322">
         <v>2021</v>
@@ -40931,7 +40928,7 @@
         <v>7322</v>
       </c>
       <c r="D323" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E323">
         <v>2021</v>
@@ -40975,7 +40972,7 @@
         <v>7323</v>
       </c>
       <c r="D324" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E324">
         <v>2021</v>
@@ -41019,7 +41016,7 @@
         <v>7324</v>
       </c>
       <c r="D325" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E325">
         <v>2021</v>
@@ -41063,7 +41060,7 @@
         <v>7325</v>
       </c>
       <c r="D326" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E326">
         <v>2021</v>
@@ -41107,7 +41104,7 @@
         <v>7326</v>
       </c>
       <c r="D327" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E327">
         <v>2021</v>
@@ -41151,7 +41148,7 @@
         <v>7327</v>
       </c>
       <c r="D328" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E328">
         <v>2021</v>
@@ -41195,7 +41192,7 @@
         <v>7328</v>
       </c>
       <c r="D329" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E329">
         <v>2021</v>
@@ -41239,7 +41236,7 @@
         <v>7329</v>
       </c>
       <c r="D330" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E330">
         <v>2021</v>
@@ -41283,7 +41280,7 @@
         <v>7330</v>
       </c>
       <c r="D331" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E331">
         <v>2021</v>
@@ -41327,7 +41324,7 @@
         <v>7331</v>
       </c>
       <c r="D332" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E332">
         <v>2021</v>
@@ -41371,7 +41368,7 @@
         <v>7332</v>
       </c>
       <c r="D333" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E333">
         <v>2021</v>
@@ -41415,7 +41412,7 @@
         <v>7333</v>
       </c>
       <c r="D334" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E334">
         <v>2021</v>
@@ -41459,7 +41456,7 @@
         <v>7334</v>
       </c>
       <c r="D335" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E335">
         <v>2021</v>
@@ -41503,7 +41500,7 @@
         <v>7335</v>
       </c>
       <c r="D336" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E336">
         <v>2021</v>
@@ -41547,7 +41544,7 @@
         <v>7336</v>
       </c>
       <c r="D337" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E337">
         <v>2021</v>
@@ -41591,7 +41588,7 @@
         <v>7337</v>
       </c>
       <c r="D338" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E338">
         <v>2021</v>
@@ -41635,7 +41632,7 @@
         <v>7338</v>
       </c>
       <c r="D339" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E339">
         <v>2021</v>
@@ -41679,7 +41676,7 @@
         <v>7339</v>
       </c>
       <c r="D340" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E340">
         <v>2021</v>
@@ -41723,7 +41720,7 @@
         <v>7340</v>
       </c>
       <c r="D341" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E341">
         <v>2021</v>
@@ -41767,7 +41764,7 @@
         <v>7341</v>
       </c>
       <c r="D342" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E342">
         <v>2021</v>
@@ -41811,7 +41808,7 @@
         <v>7342</v>
       </c>
       <c r="D343" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E343">
         <v>2021</v>
@@ -41855,7 +41852,7 @@
         <v>7343</v>
       </c>
       <c r="D344" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E344">
         <v>2021</v>
@@ -41899,7 +41896,7 @@
         <v>7344</v>
       </c>
       <c r="D345" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E345">
         <v>2021</v>
@@ -41943,7 +41940,7 @@
         <v>7345</v>
       </c>
       <c r="D346" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E346">
         <v>2021</v>
@@ -41987,7 +41984,7 @@
         <v>7346</v>
       </c>
       <c r="D347" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E347">
         <v>2021</v>
@@ -42031,7 +42028,7 @@
         <v>7347</v>
       </c>
       <c r="D348" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E348">
         <v>2021</v>
@@ -42075,7 +42072,7 @@
         <v>7348</v>
       </c>
       <c r="D349" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E349">
         <v>2021</v>
@@ -42119,7 +42116,7 @@
         <v>7349</v>
       </c>
       <c r="D350" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E350">
         <v>2021</v>
@@ -42163,7 +42160,7 @@
         <v>7350</v>
       </c>
       <c r="D351" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E351">
         <v>2021</v>
@@ -42207,7 +42204,7 @@
         <v>7351</v>
       </c>
       <c r="D352" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E352">
         <v>2021</v>
@@ -42251,7 +42248,7 @@
         <v>7352</v>
       </c>
       <c r="D353" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E353">
         <v>2021</v>
@@ -42295,7 +42292,7 @@
         <v>7353</v>
       </c>
       <c r="D354" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E354">
         <v>2021</v>
@@ -42339,7 +42336,7 @@
         <v>7354</v>
       </c>
       <c r="D355" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E355">
         <v>2021</v>
@@ -42383,7 +42380,7 @@
         <v>7355</v>
       </c>
       <c r="D356" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E356">
         <v>2021</v>
@@ -42427,7 +42424,7 @@
         <v>7356</v>
       </c>
       <c r="D357" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E357">
         <v>2021</v>
@@ -42471,7 +42468,7 @@
         <v>7357</v>
       </c>
       <c r="D358" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E358">
         <v>2021</v>
@@ -42515,7 +42512,7 @@
         <v>7358</v>
       </c>
       <c r="D359" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E359">
         <v>2021</v>
@@ -42559,7 +42556,7 @@
         <v>7359</v>
       </c>
       <c r="D360" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E360">
         <v>2021</v>
@@ -42603,7 +42600,7 @@
         <v>7360</v>
       </c>
       <c r="D361" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E361">
         <v>2021</v>
@@ -42647,7 +42644,7 @@
         <v>7361</v>
       </c>
       <c r="D362" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E362">
         <v>2021</v>
@@ -42691,7 +42688,7 @@
         <v>7362</v>
       </c>
       <c r="D363" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E363">
         <v>2021</v>
@@ -42735,7 +42732,7 @@
         <v>7363</v>
       </c>
       <c r="D364" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E364">
         <v>2021</v>
@@ -42779,7 +42776,7 @@
         <v>7364</v>
       </c>
       <c r="D365" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E365">
         <v>2021</v>
@@ -42823,7 +42820,7 @@
         <v>7365</v>
       </c>
       <c r="D366" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E366">
         <v>2021</v>
@@ -42867,7 +42864,7 @@
         <v>7366</v>
       </c>
       <c r="D367" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E367">
         <v>2021</v>
@@ -42911,7 +42908,7 @@
         <v>7367</v>
       </c>
       <c r="D368" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E368">
         <v>2021</v>
@@ -42955,7 +42952,7 @@
         <v>7368</v>
       </c>
       <c r="D369" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E369">
         <v>2021</v>
@@ -42999,7 +42996,7 @@
         <v>7369</v>
       </c>
       <c r="D370" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E370">
         <v>2021</v>
@@ -43043,7 +43040,7 @@
         <v>7370</v>
       </c>
       <c r="D371" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E371">
         <v>2021</v>
@@ -43087,7 +43084,7 @@
         <v>7371</v>
       </c>
       <c r="D372" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E372">
         <v>2021</v>
@@ -43131,7 +43128,7 @@
         <v>7372</v>
       </c>
       <c r="D373" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E373">
         <v>2021</v>
@@ -43175,7 +43172,7 @@
         <v>7373</v>
       </c>
       <c r="D374" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E374">
         <v>2021</v>
@@ -43219,7 +43216,7 @@
         <v>7374</v>
       </c>
       <c r="D375" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E375">
         <v>2021</v>
@@ -43263,7 +43260,7 @@
         <v>7375</v>
       </c>
       <c r="D376" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E376">
         <v>2021</v>
@@ -43307,7 +43304,7 @@
         <v>7376</v>
       </c>
       <c r="D377" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E377">
         <v>2021</v>
@@ -43351,7 +43348,7 @@
         <v>7377</v>
       </c>
       <c r="D378" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E378">
         <v>2021</v>
@@ -43395,7 +43392,7 @@
         <v>7378</v>
       </c>
       <c r="D379" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E379">
         <v>2021</v>
@@ -43439,7 +43436,7 @@
         <v>7379</v>
       </c>
       <c r="D380" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E380">
         <v>2021</v>
@@ -43483,7 +43480,7 @@
         <v>7380</v>
       </c>
       <c r="D381" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E381">
         <v>2021</v>
@@ -43527,7 +43524,7 @@
         <v>7381</v>
       </c>
       <c r="D382" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E382">
         <v>2021</v>
@@ -43571,7 +43568,7 @@
         <v>7382</v>
       </c>
       <c r="D383" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E383">
         <v>2021</v>
@@ -43615,7 +43612,7 @@
         <v>7383</v>
       </c>
       <c r="D384" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E384">
         <v>2021</v>
@@ -43659,7 +43656,7 @@
         <v>7384</v>
       </c>
       <c r="D385" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E385">
         <v>2021</v>
@@ -43703,7 +43700,7 @@
         <v>7385</v>
       </c>
       <c r="D386" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E386">
         <v>2021</v>
@@ -43747,7 +43744,7 @@
         <v>7386</v>
       </c>
       <c r="D387" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E387">
         <v>2021</v>
@@ -43791,7 +43788,7 @@
         <v>7387</v>
       </c>
       <c r="D388" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E388">
         <v>2021</v>
@@ -43835,7 +43832,7 @@
         <v>7388</v>
       </c>
       <c r="D389" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E389">
         <v>2021</v>
@@ -43879,7 +43876,7 @@
         <v>7389</v>
       </c>
       <c r="D390" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E390">
         <v>2021</v>
@@ -43923,7 +43920,7 @@
         <v>7390</v>
       </c>
       <c r="D391" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E391">
         <v>2021</v>
@@ -43967,7 +43964,7 @@
         <v>7391</v>
       </c>
       <c r="D392" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E392">
         <v>2021</v>
@@ -44011,7 +44008,7 @@
         <v>7392</v>
       </c>
       <c r="D393" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E393">
         <v>2021</v>
@@ -44055,7 +44052,7 @@
         <v>7393</v>
       </c>
       <c r="D394" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E394">
         <v>2021</v>
@@ -44099,7 +44096,7 @@
         <v>7394</v>
       </c>
       <c r="D395" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E395">
         <v>2021</v>
@@ -44143,7 +44140,7 @@
         <v>7395</v>
       </c>
       <c r="D396" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E396">
         <v>2021</v>
@@ -44187,7 +44184,7 @@
         <v>7396</v>
       </c>
       <c r="D397" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E397">
         <v>2021</v>
@@ -44231,7 +44228,7 @@
         <v>7397</v>
       </c>
       <c r="D398" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E398">
         <v>2021</v>
@@ -44275,7 +44272,7 @@
         <v>7398</v>
       </c>
       <c r="D399" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E399">
         <v>2021</v>
@@ -44319,7 +44316,7 @@
         <v>7399</v>
       </c>
       <c r="D400" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E400">
         <v>2021</v>
@@ -44363,7 +44360,7 @@
         <v>7400</v>
       </c>
       <c r="D401" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E401">
         <v>2021</v>
@@ -44407,7 +44404,7 @@
         <v>7401</v>
       </c>
       <c r="D402" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E402">
         <v>2021</v>
@@ -44451,7 +44448,7 @@
         <v>7402</v>
       </c>
       <c r="D403" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E403">
         <v>2021</v>
@@ -44495,7 +44492,7 @@
         <v>7403</v>
       </c>
       <c r="D404" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E404">
         <v>2021</v>
@@ -44539,7 +44536,7 @@
         <v>7404</v>
       </c>
       <c r="D405" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E405">
         <v>2021</v>
@@ -44583,7 +44580,7 @@
         <v>7405</v>
       </c>
       <c r="D406" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E406">
         <v>2021</v>
@@ -44627,7 +44624,7 @@
         <v>7406</v>
       </c>
       <c r="D407" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E407">
         <v>2021</v>
@@ -44671,7 +44668,7 @@
         <v>7407</v>
       </c>
       <c r="D408" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E408">
         <v>2021</v>
@@ -44715,7 +44712,7 @@
         <v>7408</v>
       </c>
       <c r="D409" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E409">
         <v>2021</v>
@@ -44759,7 +44756,7 @@
         <v>7409</v>
       </c>
       <c r="D410" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E410">
         <v>2021</v>
@@ -44803,7 +44800,7 @@
         <v>7410</v>
       </c>
       <c r="D411" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E411">
         <v>2021</v>
@@ -44847,7 +44844,7 @@
         <v>7411</v>
       </c>
       <c r="D412" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E412">
         <v>2021</v>
@@ -44891,7 +44888,7 @@
         <v>7412</v>
       </c>
       <c r="D413" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E413">
         <v>2021</v>
@@ -44935,7 +44932,7 @@
         <v>7413</v>
       </c>
       <c r="D414" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E414">
         <v>2021</v>
@@ -44979,7 +44976,7 @@
         <v>7414</v>
       </c>
       <c r="D415" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E415">
         <v>2021</v>
@@ -45023,7 +45020,7 @@
         <v>7415</v>
       </c>
       <c r="D416" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E416">
         <v>2021</v>
@@ -45067,7 +45064,7 @@
         <v>7416</v>
       </c>
       <c r="D417" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E417">
         <v>2021</v>
@@ -45111,7 +45108,7 @@
         <v>7417</v>
       </c>
       <c r="D418" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E418">
         <v>2021</v>
@@ -45155,7 +45152,7 @@
         <v>7418</v>
       </c>
       <c r="D419" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E419">
         <v>2021</v>
@@ -45199,7 +45196,7 @@
         <v>7419</v>
       </c>
       <c r="D420" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E420">
         <v>2021</v>
@@ -45243,7 +45240,7 @@
         <v>7420</v>
       </c>
       <c r="D421" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E421">
         <v>2021</v>
@@ -45287,7 +45284,7 @@
         <v>7421</v>
       </c>
       <c r="D422" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E422">
         <v>2021</v>
@@ -45331,7 +45328,7 @@
         <v>7422</v>
       </c>
       <c r="D423" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E423">
         <v>2021</v>
@@ -45375,7 +45372,7 @@
         <v>7423</v>
       </c>
       <c r="D424" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E424">
         <v>2021</v>
@@ -45419,7 +45416,7 @@
         <v>7424</v>
       </c>
       <c r="D425" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E425">
         <v>2021</v>
@@ -45463,7 +45460,7 @@
         <v>7425</v>
       </c>
       <c r="D426" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E426">
         <v>2021</v>
@@ -45507,7 +45504,7 @@
         <v>7426</v>
       </c>
       <c r="D427" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E427">
         <v>2021</v>
@@ -45551,7 +45548,7 @@
         <v>7427</v>
       </c>
       <c r="D428" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E428">
         <v>2021</v>
@@ -45595,7 +45592,7 @@
         <v>7428</v>
       </c>
       <c r="D429" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E429">
         <v>2021</v>
@@ -45639,7 +45636,7 @@
         <v>7429</v>
       </c>
       <c r="D430" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E430">
         <v>2021</v>
@@ -45683,7 +45680,7 @@
         <v>7430</v>
       </c>
       <c r="D431" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E431">
         <v>2021</v>
@@ -45727,7 +45724,7 @@
         <v>7431</v>
       </c>
       <c r="D432" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E432">
         <v>2021</v>
@@ -45771,7 +45768,7 @@
         <v>7432</v>
       </c>
       <c r="D433" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E433">
         <v>2021</v>
@@ -45815,7 +45812,7 @@
         <v>7433</v>
       </c>
       <c r="D434" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E434">
         <v>2021</v>
@@ -45859,7 +45856,7 @@
         <v>7434</v>
       </c>
       <c r="D435" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E435">
         <v>2021</v>
@@ -45903,7 +45900,7 @@
         <v>7435</v>
       </c>
       <c r="D436" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E436">
         <v>2021</v>
@@ -45947,7 +45944,7 @@
         <v>7436</v>
       </c>
       <c r="D437" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E437">
         <v>2021</v>
@@ -45991,7 +45988,7 @@
         <v>7437</v>
       </c>
       <c r="D438" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E438">
         <v>2021</v>
@@ -46035,7 +46032,7 @@
         <v>7438</v>
       </c>
       <c r="D439" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E439">
         <v>2021</v>
@@ -46079,7 +46076,7 @@
         <v>7439</v>
       </c>
       <c r="D440" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E440">
         <v>2021</v>
@@ -46123,7 +46120,7 @@
         <v>7440</v>
       </c>
       <c r="D441" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E441">
         <v>2021</v>
@@ -46167,7 +46164,7 @@
         <v>7441</v>
       </c>
       <c r="D442" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E442">
         <v>2021</v>
@@ -46211,7 +46208,7 @@
         <v>7442</v>
       </c>
       <c r="D443" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E443">
         <v>2021</v>
@@ -46255,7 +46252,7 @@
         <v>7443</v>
       </c>
       <c r="D444" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E444">
         <v>2021</v>
@@ -46299,7 +46296,7 @@
         <v>7444</v>
       </c>
       <c r="D445" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E445">
         <v>2021</v>
@@ -46343,7 +46340,7 @@
         <v>7445</v>
       </c>
       <c r="D446" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E446">
         <v>2021</v>
@@ -46387,7 +46384,7 @@
         <v>7446</v>
       </c>
       <c r="D447" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E447">
         <v>2021</v>
@@ -46431,7 +46428,7 @@
         <v>7447</v>
       </c>
       <c r="D448" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E448">
         <v>2021</v>
@@ -46475,7 +46472,7 @@
         <v>7448</v>
       </c>
       <c r="D449" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E449">
         <v>2021</v>
@@ -46519,7 +46516,7 @@
         <v>7449</v>
       </c>
       <c r="D450" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E450">
         <v>2021</v>
@@ -46563,7 +46560,7 @@
         <v>7450</v>
       </c>
       <c r="D451" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E451">
         <v>2021</v>
@@ -46607,7 +46604,7 @@
         <v>7451</v>
       </c>
       <c r="D452" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E452">
         <v>2021</v>
@@ -46651,7 +46648,7 @@
         <v>7452</v>
       </c>
       <c r="D453" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E453">
         <v>2021</v>
@@ -46695,7 +46692,7 @@
         <v>7453</v>
       </c>
       <c r="D454" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E454">
         <v>2021</v>
@@ -46739,7 +46736,7 @@
         <v>7454</v>
       </c>
       <c r="D455" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E455">
         <v>2021</v>
@@ -46783,7 +46780,7 @@
         <v>7455</v>
       </c>
       <c r="D456" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E456">
         <v>2021</v>
@@ -46827,7 +46824,7 @@
         <v>7456</v>
       </c>
       <c r="D457" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E457">
         <v>2021</v>
@@ -46871,7 +46868,7 @@
         <v>7457</v>
       </c>
       <c r="D458" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E458">
         <v>2021</v>
@@ -46915,7 +46912,7 @@
         <v>7458</v>
       </c>
       <c r="D459" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E459">
         <v>2021</v>
@@ -46959,7 +46956,7 @@
         <v>7459</v>
       </c>
       <c r="D460" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E460">
         <v>2021</v>
@@ -47003,7 +47000,7 @@
         <v>7460</v>
       </c>
       <c r="D461" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E461">
         <v>2021</v>
@@ -47047,7 +47044,7 @@
         <v>7461</v>
       </c>
       <c r="D462" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E462">
         <v>2021</v>
@@ -47091,7 +47088,7 @@
         <v>7462</v>
       </c>
       <c r="D463" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E463">
         <v>2021</v>
@@ -47135,7 +47132,7 @@
         <v>7463</v>
       </c>
       <c r="D464" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E464">
         <v>2021</v>
@@ -47179,7 +47176,7 @@
         <v>7464</v>
       </c>
       <c r="D465" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E465">
         <v>2021</v>
@@ -47223,7 +47220,7 @@
         <v>7465</v>
       </c>
       <c r="D466" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E466">
         <v>2021</v>
@@ -47267,7 +47264,7 @@
         <v>7466</v>
       </c>
       <c r="D467" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E467">
         <v>2021</v>
@@ -47311,7 +47308,7 @@
         <v>7467</v>
       </c>
       <c r="D468" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E468">
         <v>2021</v>
@@ -47355,7 +47352,7 @@
         <v>7468</v>
       </c>
       <c r="D469" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E469">
         <v>2021</v>
@@ -47399,7 +47396,7 @@
         <v>7469</v>
       </c>
       <c r="D470" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E470">
         <v>2021</v>
@@ -47443,7 +47440,7 @@
         <v>7470</v>
       </c>
       <c r="D471" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E471">
         <v>2021</v>
@@ -47487,7 +47484,7 @@
         <v>7471</v>
       </c>
       <c r="D472" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E472">
         <v>2021</v>
@@ -47531,7 +47528,7 @@
         <v>7472</v>
       </c>
       <c r="D473" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E473">
         <v>2021</v>
@@ -47575,7 +47572,7 @@
         <v>7473</v>
       </c>
       <c r="D474" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E474">
         <v>2021</v>
@@ -47619,7 +47616,7 @@
         <v>7474</v>
       </c>
       <c r="D475" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E475">
         <v>2021</v>
@@ -47663,7 +47660,7 @@
         <v>7475</v>
       </c>
       <c r="D476" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E476">
         <v>2021</v>
@@ -47707,7 +47704,7 @@
         <v>7476</v>
       </c>
       <c r="D477" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E477">
         <v>2021</v>
@@ -47751,7 +47748,7 @@
         <v>7477</v>
       </c>
       <c r="D478" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E478">
         <v>2021</v>
@@ -47795,7 +47792,7 @@
         <v>7478</v>
       </c>
       <c r="D479" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E479">
         <v>2021</v>
@@ -47839,7 +47836,7 @@
         <v>7479</v>
       </c>
       <c r="D480" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E480">
         <v>2021</v>
@@ -47883,7 +47880,7 @@
         <v>7480</v>
       </c>
       <c r="D481" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E481">
         <v>2021</v>
@@ -47919,7 +47916,7 @@
         <v>0</v>
       </c>
       <c r="V481" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
